--- a/municipios .xlsx
+++ b/municipios .xlsx
@@ -15,12 +15,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$B$1:$J$295</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="525">
   <si>
     <t>Acre</t>
   </si>
@@ -1075,9 +1074,6 @@
     <t>fruta</t>
   </si>
   <si>
-    <t>lugar con abundante gavata (planta)</t>
-  </si>
-  <si>
     <t>árbore da canoa</t>
   </si>
   <si>
@@ -1550,6 +1546,54 @@
   </si>
   <si>
     <t>Fazenda Galvão, uma das grandes propriedades pertencentes à família de Manoel Lustosa Martins</t>
+  </si>
+  <si>
+    <t>ensenada de canoas</t>
+  </si>
+  <si>
+    <t>São João do Palmital</t>
+  </si>
+  <si>
+    <t>São Pedro Apóstolo de Gaspar </t>
+  </si>
+  <si>
+    <t>líder federalista Gaspar Silveira Martins</t>
+  </si>
+  <si>
+    <t>Armação da Piedade</t>
+  </si>
+  <si>
+    <t>Celso Ramos, ex-governador do estado de Santa Catarina</t>
+  </si>
+  <si>
+    <t> filho do Conde d’Eu, Dom Pedro de Alcântara de Orléans e Bragança, príncipe do Grão-Pará</t>
+  </si>
+  <si>
+    <t>Gravatá</t>
+  </si>
+  <si>
+    <t>lugar con abundante gavata (planta), nome indígena da bromélia</t>
+  </si>
+  <si>
+    <t>gabiroba.</t>
+  </si>
+  <si>
+    <t>lugar do sol</t>
+  </si>
+  <si>
+    <t>Brüderthal (Vale dos Irmãos)</t>
+  </si>
+  <si>
+    <t>nome da praia paulista freqüentada por ele</t>
+  </si>
+  <si>
+    <t>Vila Nova</t>
+  </si>
+  <si>
+    <t>serraria</t>
+  </si>
+  <si>
+    <t>Porto Chalana</t>
   </si>
 </sst>
 </file>
@@ -2052,8 +2096,8 @@
   <dimension ref="A1:P295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2063,22 +2107,22 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1" t="s">
         <v>422</v>
       </c>
-      <c r="F1" t="s">
-        <v>423</v>
-      </c>
       <c r="G1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I1" t="s">
         <v>372</v>
-      </c>
-      <c r="H1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" t="s">
-        <v>373</v>
       </c>
       <c r="J1" t="s">
         <v>317</v>
@@ -2092,13 +2136,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G2">
         <v>1934</v>
       </c>
       <c r="H2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J2" t="s">
         <v>316</v>
@@ -2107,7 +2151,7 @@
         <v>316</v>
       </c>
       <c r="P2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2118,22 +2162,22 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G3">
         <v>1922</v>
       </c>
       <c r="H3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J3" t="s">
         <v>316</v>
       </c>
       <c r="O3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2144,19 +2188,19 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G4">
         <v>1962</v>
       </c>
       <c r="H4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2167,16 +2211,16 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G5">
         <v>1960</v>
       </c>
       <c r="H5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J5" t="s">
         <v>355</v>
-      </c>
-      <c r="J5" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2187,16 +2231,16 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G6">
         <v>1943</v>
       </c>
       <c r="H6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2207,16 +2251,16 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G7">
         <v>1955</v>
       </c>
       <c r="H7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2227,16 +2271,16 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G8">
         <v>1978</v>
       </c>
       <c r="H8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2247,16 +2291,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G9">
         <v>1961</v>
       </c>
       <c r="H9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2267,13 +2311,13 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G10">
         <v>1962</v>
       </c>
       <c r="H10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J10" t="s">
         <v>316</v>
@@ -2287,16 +2331,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G11">
         <v>1992</v>
       </c>
       <c r="H11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2307,13 +2351,13 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G12">
         <v>1950</v>
       </c>
       <c r="H12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J12" t="s">
         <v>316</v>
@@ -2327,13 +2371,13 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G13">
         <v>1891</v>
       </c>
       <c r="H13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J13" t="s">
         <v>316</v>
@@ -2347,13 +2391,13 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G14">
         <v>1929</v>
       </c>
       <c r="H14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J14" t="s">
         <v>316</v>
@@ -2367,13 +2411,13 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G15">
         <v>1906</v>
       </c>
       <c r="H15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J15" t="s">
         <v>316</v>
@@ -2387,13 +2431,13 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G16">
         <v>1963</v>
       </c>
       <c r="H16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J16" t="s">
         <v>316</v>
@@ -2407,19 +2451,19 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G17">
         <v>1943</v>
       </c>
       <c r="H17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J17" t="s">
         <v>322</v>
       </c>
       <c r="K17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2430,19 +2474,19 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G18">
         <v>1943</v>
       </c>
       <c r="H18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J18" t="s">
         <v>322</v>
       </c>
       <c r="K18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2453,19 +2497,19 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G19">
         <v>1943</v>
       </c>
       <c r="H19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J19" t="s">
+        <v>367</v>
+      </c>
+      <c r="K19" t="s">
         <v>368</v>
-      </c>
-      <c r="K19" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2476,19 +2520,19 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G20">
         <v>1880</v>
       </c>
       <c r="H20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J20" t="s">
         <v>322</v>
       </c>
       <c r="K20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2499,19 +2543,19 @@
         <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G21">
         <v>1934</v>
       </c>
       <c r="H21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I21">
         <v>1959</v>
       </c>
       <c r="J21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2522,22 +2566,22 @@
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G22">
         <v>1943</v>
       </c>
       <c r="H22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I22">
         <v>1961</v>
       </c>
       <c r="J22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2548,19 +2592,19 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G23">
         <v>1950</v>
       </c>
       <c r="H23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I23">
         <v>1992</v>
       </c>
       <c r="J23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2571,19 +2615,19 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G24">
         <v>1919</v>
       </c>
       <c r="H24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I24">
         <v>1963</v>
       </c>
       <c r="J24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2594,19 +2638,19 @@
         <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G25">
         <v>1957</v>
       </c>
       <c r="H25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I25">
         <v>1964</v>
       </c>
       <c r="J25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2617,19 +2661,19 @@
         <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G26">
         <v>1943</v>
       </c>
       <c r="H26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I26">
         <v>1964</v>
       </c>
       <c r="J26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2640,19 +2684,19 @@
         <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G27">
         <v>1988</v>
       </c>
       <c r="H27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I27">
         <v>1995</v>
       </c>
       <c r="J27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2663,19 +2707,19 @@
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G28">
         <v>1960</v>
       </c>
       <c r="H28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I28">
         <v>1992</v>
       </c>
       <c r="J28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2686,13 +2730,13 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G29">
         <v>1954</v>
       </c>
       <c r="H29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I29">
         <v>1964</v>
@@ -2701,7 +2745,7 @@
         <v>322</v>
       </c>
       <c r="K29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2712,42 +2756,42 @@
         <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G30">
         <v>1990</v>
       </c>
       <c r="H30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I30">
         <v>1995</v>
       </c>
       <c r="J30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="B31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G31">
         <v>1858</v>
       </c>
       <c r="H31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I31">
         <v>2013</v>
       </c>
       <c r="J31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2755,22 +2799,22 @@
         <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G32">
         <v>1944</v>
       </c>
       <c r="H32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I32">
         <v>1995</v>
       </c>
       <c r="J32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -2778,19 +2822,19 @@
         <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G33">
         <v>1951</v>
       </c>
       <c r="H33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I33">
         <v>1995</v>
       </c>
       <c r="J33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -2798,22 +2842,22 @@
         <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G34">
         <v>1861</v>
       </c>
       <c r="H34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I34">
         <v>1961</v>
       </c>
       <c r="J34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="2:11">
@@ -2821,19 +2865,19 @@
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G35">
         <v>1957</v>
       </c>
       <c r="H35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I35">
         <v>1994</v>
       </c>
       <c r="J35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="2:11">
@@ -2841,22 +2885,22 @@
         <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G36">
         <v>1964</v>
       </c>
       <c r="H36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I36">
         <v>1992</v>
       </c>
       <c r="J36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="2:11">
@@ -2864,16 +2908,16 @@
         <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G37">
         <v>1880</v>
       </c>
       <c r="H37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I37">
         <v>1961</v>
@@ -2887,13 +2931,13 @@
         <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G38">
         <v>1882</v>
       </c>
       <c r="H38" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I38">
         <v>1894</v>
@@ -2902,7 +2946,7 @@
         <v>322</v>
       </c>
       <c r="K38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -2913,7 +2957,7 @@
         <v>1873</v>
       </c>
       <c r="H39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I39">
         <v>1880</v>
@@ -2927,16 +2971,16 @@
         <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G40">
         <v>1929</v>
       </c>
       <c r="H40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I40">
         <v>1994</v>
@@ -2945,7 +2989,7 @@
         <v>322</v>
       </c>
       <c r="K40" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -2953,22 +2997,22 @@
         <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G41">
         <v>1949</v>
       </c>
       <c r="H41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I41">
         <v>1967</v>
       </c>
       <c r="J41" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="2:11">
@@ -2976,22 +3020,22 @@
         <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G42">
         <v>1957</v>
       </c>
       <c r="H42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I42">
         <v>1997</v>
       </c>
       <c r="J42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -2999,22 +3043,22 @@
         <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G43">
         <v>1977</v>
       </c>
       <c r="H43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I43">
         <v>1993</v>
       </c>
       <c r="J43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -3022,22 +3066,22 @@
         <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G44">
         <v>1920</v>
       </c>
       <c r="H44" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I44">
         <v>1922</v>
       </c>
       <c r="J44" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -3045,19 +3089,19 @@
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G45">
         <v>1967</v>
       </c>
       <c r="H45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I45">
         <v>1992</v>
       </c>
       <c r="J45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -3065,16 +3109,16 @@
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D46" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G46">
         <v>1943</v>
       </c>
       <c r="H46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I46">
         <v>1962</v>
@@ -3083,7 +3127,7 @@
         <v>322</v>
       </c>
       <c r="K46" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="2:11">
@@ -3091,22 +3135,22 @@
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G47">
         <v>1892</v>
       </c>
       <c r="H47" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I47">
         <v>1955</v>
       </c>
       <c r="J47" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K47" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" spans="2:11">
@@ -3114,22 +3158,22 @@
         <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G48">
         <v>1957</v>
       </c>
       <c r="H48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I48">
         <v>1991</v>
       </c>
       <c r="J48" t="s">
+        <v>408</v>
+      </c>
+      <c r="K48" t="s">
         <v>409</v>
-      </c>
-      <c r="K48" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="49" spans="2:11">
@@ -3137,13 +3181,13 @@
         <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G49">
         <v>1995</v>
       </c>
       <c r="H49" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I49">
         <v>1995</v>
@@ -3157,16 +3201,16 @@
         <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D50" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G50">
         <v>1890</v>
       </c>
       <c r="H50" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I50">
         <v>1881</v>
@@ -3180,22 +3224,22 @@
         <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G51">
         <v>1881</v>
       </c>
       <c r="H51" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I51">
         <v>1934</v>
       </c>
       <c r="J51" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="2:11">
@@ -3203,7 +3247,7 @@
         <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D52" t="s">
         <v>263</v>
@@ -3212,7 +3256,7 @@
         <v>1955</v>
       </c>
       <c r="H52" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I52">
         <v>1965</v>
@@ -3221,7 +3265,7 @@
         <v>322</v>
       </c>
       <c r="K52" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" spans="2:11">
@@ -3229,16 +3273,16 @@
         <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D53" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G53">
         <v>1909</v>
       </c>
       <c r="H53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I53">
         <v>1992</v>
@@ -3247,7 +3291,7 @@
         <v>316</v>
       </c>
       <c r="K53" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="2:11">
@@ -3255,16 +3299,16 @@
         <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G54">
         <v>1849</v>
       </c>
       <c r="H54" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I54">
         <v>1884</v>
@@ -3273,7 +3317,7 @@
         <v>322</v>
       </c>
       <c r="K54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" spans="2:11">
@@ -3281,19 +3325,19 @@
         <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G55">
         <v>1827</v>
       </c>
       <c r="H55" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I55">
         <v>1897</v>
       </c>
       <c r="J55" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="2:11">
@@ -3301,13 +3345,13 @@
         <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D56" t="s">
+        <v>419</v>
+      </c>
+      <c r="E56" t="s">
         <v>420</v>
-      </c>
-      <c r="E56" t="s">
-        <v>421</v>
       </c>
       <c r="F56">
         <v>1856</v>
@@ -3316,13 +3360,13 @@
         <v>1949</v>
       </c>
       <c r="H56" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I56">
         <v>1961</v>
       </c>
       <c r="J56" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="2:11">
@@ -3330,10 +3374,10 @@
         <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E57" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F57">
         <v>1630</v>
@@ -3342,16 +3386,16 @@
         <v>1917</v>
       </c>
       <c r="H57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I57">
         <v>1958</v>
       </c>
       <c r="J57" t="s">
+        <v>423</v>
+      </c>
+      <c r="K57" t="s">
         <v>424</v>
-      </c>
-      <c r="K57" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="58" spans="2:11">
@@ -3359,13 +3403,13 @@
         <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D58" t="s">
+        <v>425</v>
+      </c>
+      <c r="E58" t="s">
         <v>426</v>
-      </c>
-      <c r="E58" t="s">
-        <v>427</v>
       </c>
       <c r="F58">
         <v>1839</v>
@@ -3374,13 +3418,13 @@
         <v>1854</v>
       </c>
       <c r="H58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I58">
         <v>1881</v>
       </c>
       <c r="J58" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="2:11">
@@ -3388,10 +3432,10 @@
         <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F59">
         <v>1875</v>
@@ -3400,16 +3444,16 @@
         <v>1934</v>
       </c>
       <c r="H59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I59">
         <v>1962</v>
       </c>
       <c r="J59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K59" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60" spans="2:11">
@@ -3417,13 +3461,13 @@
         <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D60" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E60" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F60">
         <v>1888</v>
@@ -3432,16 +3476,16 @@
         <v>1934</v>
       </c>
       <c r="H60" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I60">
         <v>1911</v>
       </c>
       <c r="J60" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K60" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61" spans="2:11">
@@ -3449,13 +3493,13 @@
         <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D61" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E61" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F61">
         <v>1727</v>
@@ -3464,16 +3508,16 @@
         <v>1899</v>
       </c>
       <c r="H61" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I61">
         <v>1994</v>
       </c>
       <c r="J61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K61" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="2:11">
@@ -3481,13 +3525,13 @@
         <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D62" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F62">
         <v>1906</v>
@@ -3496,16 +3540,16 @@
         <v>1943</v>
       </c>
       <c r="H62" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I62">
         <v>1948</v>
       </c>
       <c r="J62" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K62" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="2:11">
@@ -3513,19 +3557,19 @@
         <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D63" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E63" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G63">
         <v>1989</v>
       </c>
       <c r="H63" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I63">
         <v>1992</v>
@@ -3534,7 +3578,7 @@
         <v>322</v>
       </c>
       <c r="K63" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="2:11">
@@ -3542,19 +3586,19 @@
         <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E64" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G64">
         <v>1917</v>
       </c>
       <c r="H64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I64">
         <v>1963</v>
@@ -3563,7 +3607,7 @@
         <v>322</v>
       </c>
       <c r="K64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -3571,19 +3615,19 @@
         <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D65" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E65" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G65">
         <v>1933</v>
       </c>
       <c r="H65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I65">
         <v>1962</v>
@@ -3592,7 +3636,7 @@
         <v>322</v>
       </c>
       <c r="K65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66" spans="2:11">
@@ -3600,13 +3644,13 @@
         <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D66" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E66" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F66">
         <v>1934</v>
@@ -3615,7 +3659,7 @@
         <v>1957</v>
       </c>
       <c r="H66" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I66">
         <v>1989</v>
@@ -3624,7 +3668,7 @@
         <v>316</v>
       </c>
       <c r="K66" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -3632,13 +3676,13 @@
         <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D67" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E67" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F67">
         <v>1880</v>
@@ -3647,16 +3691,16 @@
         <v>1916</v>
       </c>
       <c r="H67" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I67">
         <v>1991</v>
       </c>
       <c r="J67" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K67" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="68" spans="2:11">
@@ -3664,10 +3708,10 @@
         <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E68" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F68">
         <v>1922</v>
@@ -3676,16 +3720,16 @@
         <v>1986</v>
       </c>
       <c r="H68" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I68">
         <v>1997</v>
       </c>
       <c r="J68" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K68" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -3693,10 +3737,10 @@
         <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F69">
         <v>1917</v>
@@ -3705,16 +3749,16 @@
         <v>1917</v>
       </c>
       <c r="H69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I69">
         <v>1917</v>
       </c>
       <c r="J69" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K69" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="2:11">
@@ -3722,13 +3766,13 @@
         <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D70" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E70" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F70">
         <v>1885</v>
@@ -3737,16 +3781,16 @@
         <v>1991</v>
       </c>
       <c r="H70" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I70">
         <v>1991</v>
       </c>
       <c r="J70" t="s">
+        <v>463</v>
+      </c>
+      <c r="K70" t="s">
         <v>464</v>
-      </c>
-      <c r="K70" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -3754,13 +3798,13 @@
         <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D71" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E71" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F71">
         <v>1925</v>
@@ -3769,7 +3813,7 @@
         <v>1925</v>
       </c>
       <c r="H71" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I71">
         <v>1934</v>
@@ -3783,10 +3827,10 @@
         <v>93</v>
       </c>
       <c r="D72" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E72" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F72">
         <v>1921</v>
@@ -3795,13 +3839,13 @@
         <v>192</v>
       </c>
       <c r="H72" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I72">
         <v>1992</v>
       </c>
       <c r="J72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="2:11">
@@ -3809,10 +3853,10 @@
         <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E73" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F73">
         <v>1929</v>
@@ -3821,7 +3865,7 @@
         <v>1950</v>
       </c>
       <c r="H73" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I73">
         <v>1961</v>
@@ -3830,7 +3874,7 @@
         <v>316</v>
       </c>
       <c r="K73" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="74" spans="2:11">
@@ -3838,19 +3882,19 @@
         <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E74" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G74">
         <v>1958</v>
       </c>
       <c r="H74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I74">
         <v>1992</v>
@@ -3859,7 +3903,7 @@
         <v>316</v>
       </c>
       <c r="K74" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="75" spans="2:11">
@@ -3867,13 +3911,13 @@
         <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D75" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E75" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F75">
         <v>1771</v>
@@ -3882,7 +3926,7 @@
         <v>1920</v>
       </c>
       <c r="H75" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I75">
         <v>1982</v>
@@ -3891,7 +3935,7 @@
         <v>316</v>
       </c>
       <c r="K75" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" spans="2:11">
@@ -3899,13 +3943,13 @@
         <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D76" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F76">
         <v>1897</v>
@@ -3914,7 +3958,7 @@
         <v>1943</v>
       </c>
       <c r="H76" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I76">
         <v>1958</v>
@@ -3923,7 +3967,7 @@
         <v>322</v>
       </c>
       <c r="K76" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="2:11">
@@ -3931,13 +3975,13 @@
         <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D77" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E77" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F77">
         <v>1880</v>
@@ -3946,16 +3990,16 @@
         <v>1948</v>
       </c>
       <c r="H77" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I77">
         <v>1925</v>
       </c>
       <c r="J77" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K77" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="2:11">
@@ -3963,10 +4007,10 @@
         <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E78" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F78">
         <v>1931</v>
@@ -3975,7 +4019,7 @@
         <v>1931</v>
       </c>
       <c r="H78" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I78">
         <v>1958</v>
@@ -3984,7 +4028,7 @@
         <v>322</v>
       </c>
       <c r="K78" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79" spans="2:11">
@@ -3992,13 +4036,13 @@
         <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D79" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E79" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F79">
         <v>1934</v>
@@ -4007,7 +4051,7 @@
         <v>1944</v>
       </c>
       <c r="H79" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I79">
         <v>1995</v>
@@ -4016,7 +4060,7 @@
         <v>322</v>
       </c>
       <c r="K79" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="2:11">
@@ -4024,13 +4068,13 @@
         <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D80" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E80" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F80">
         <v>1679</v>
@@ -4039,27 +4083,27 @@
         <v>1864</v>
       </c>
       <c r="H80" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I80">
         <v>1869</v>
       </c>
       <c r="J80" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K80" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12">
       <c r="B81" t="s">
         <v>102</v>
       </c>
       <c r="C81" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E81" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F81">
         <v>1934</v>
@@ -4068,30 +4112,30 @@
         <v>1934</v>
       </c>
       <c r="H81" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I81">
         <v>1956</v>
       </c>
       <c r="J81" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K81" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12">
       <c r="B82" t="s">
         <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D82" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E82" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F82">
         <v>1917</v>
@@ -4100,7 +4144,7 @@
         <v>1938</v>
       </c>
       <c r="H82" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I82">
         <v>1954</v>
@@ -4109,15 +4153,15 @@
         <v>316</v>
       </c>
       <c r="K82" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12">
       <c r="B83" t="s">
         <v>104</v>
       </c>
       <c r="E83" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F83">
         <v>1919</v>
@@ -4126,7 +4170,7 @@
         <v>1962</v>
       </c>
       <c r="H83" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I83">
         <v>1962</v>
@@ -4135,21 +4179,21 @@
         <v>316</v>
       </c>
       <c r="K83" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12">
       <c r="B84" t="s">
         <v>105</v>
       </c>
       <c r="E84" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G84">
         <v>1948</v>
       </c>
       <c r="H84" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I84">
         <v>1988</v>
@@ -4158,21 +4202,21 @@
         <v>316</v>
       </c>
       <c r="K84" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12">
       <c r="B85" t="s">
         <v>106</v>
       </c>
       <c r="C85" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D85" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E85" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F85">
         <v>1930</v>
@@ -4181,56 +4225,56 @@
         <v>1961</v>
       </c>
       <c r="H85" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I85">
         <v>1995</v>
       </c>
       <c r="J85" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K85" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12">
       <c r="B86" t="s">
         <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E86" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G86">
         <v>1920</v>
       </c>
       <c r="H86" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I86">
         <v>1993</v>
       </c>
       <c r="J86" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K86" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12">
       <c r="B87" t="s">
         <v>108</v>
       </c>
       <c r="C87" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D87" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F87">
         <v>1870</v>
@@ -4239,30 +4283,30 @@
         <v>1943</v>
       </c>
       <c r="H87" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I87">
         <v>1963</v>
       </c>
       <c r="J87" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K87" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12">
       <c r="B88" t="s">
         <v>109</v>
       </c>
       <c r="C88" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D88" t="s">
+        <v>493</v>
+      </c>
+      <c r="E88" t="s">
         <v>494</v>
-      </c>
-      <c r="E88" t="s">
-        <v>495</v>
       </c>
       <c r="F88">
         <v>1910</v>
@@ -4271,27 +4315,27 @@
         <v>1919</v>
       </c>
       <c r="H88" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I88">
         <v>1958</v>
       </c>
       <c r="J88" t="s">
+        <v>495</v>
+      </c>
+      <c r="K88" t="s">
         <v>496</v>
       </c>
-      <c r="K88" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11">
+    </row>
+    <row r="89" spans="2:12">
       <c r="B89" t="s">
         <v>110</v>
       </c>
       <c r="C89" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E89" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F89">
         <v>1952</v>
@@ -4300,30 +4344,30 @@
         <v>1952</v>
       </c>
       <c r="H89" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I89">
         <v>1995</v>
       </c>
       <c r="J89" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K89" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12">
       <c r="B90" t="s">
         <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D90" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E90" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F90">
         <v>1675</v>
@@ -4332,7 +4376,7 @@
         <v>1894</v>
       </c>
       <c r="H90" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I90">
         <v>1726</v>
@@ -4341,21 +4385,21 @@
         <v>316</v>
       </c>
       <c r="K90" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12">
       <c r="B91" t="s">
         <v>112</v>
       </c>
       <c r="C91" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D91" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E91" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F91">
         <v>1953</v>
@@ -4364,27 +4408,27 @@
         <v>1985</v>
       </c>
       <c r="H91" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I91">
         <v>1992</v>
       </c>
       <c r="J91" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K91" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12">
       <c r="B92" t="s">
         <v>113</v>
       </c>
       <c r="C92" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E92" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F92">
         <v>1912</v>
@@ -4393,30 +4437,30 @@
         <v>1912</v>
       </c>
       <c r="H92" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I92">
         <v>1989</v>
       </c>
       <c r="J92" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K92" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12">
       <c r="B93" t="s">
         <v>114</v>
       </c>
       <c r="C93" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D93" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E93" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F93">
         <v>1937</v>
@@ -4425,27 +4469,27 @@
         <v>1961</v>
       </c>
       <c r="H93" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I93">
         <v>1961</v>
       </c>
       <c r="J93" t="s">
+        <v>503</v>
+      </c>
+      <c r="K93" t="s">
         <v>504</v>
       </c>
-      <c r="K93" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11">
+    </row>
+    <row r="94" spans="2:12">
       <c r="B94" t="s">
         <v>115</v>
       </c>
       <c r="C94" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E94" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F94">
         <v>1949</v>
@@ -4454,7 +4498,7 @@
         <v>1949</v>
       </c>
       <c r="H94" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I94">
         <v>1995</v>
@@ -4463,21 +4507,21 @@
         <v>316</v>
       </c>
       <c r="K94" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12">
       <c r="B95" t="s">
         <v>116</v>
       </c>
       <c r="C95" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D95" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E95" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F95">
         <v>1940</v>
@@ -4486,95 +4530,293 @@
         <v>1959</v>
       </c>
       <c r="H95" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I95">
         <v>1962</v>
       </c>
       <c r="J95" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K95" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12">
       <c r="B96" t="s">
         <v>117</v>
       </c>
+      <c r="C96" t="s">
+        <v>359</v>
+      </c>
+      <c r="E96" t="s">
+        <v>387</v>
+      </c>
+      <c r="F96">
+        <v>1666</v>
+      </c>
+      <c r="G96">
+        <v>1666</v>
+      </c>
+      <c r="H96" t="s">
+        <v>387</v>
+      </c>
+      <c r="I96">
+        <v>1961</v>
+      </c>
       <c r="J96" t="s">
         <v>322</v>
       </c>
       <c r="K96" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11">
+        <v>352</v>
+      </c>
+      <c r="L96" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12">
       <c r="B97" t="s">
         <v>118</v>
       </c>
+      <c r="C97" t="s">
+        <v>358</v>
+      </c>
+      <c r="D97" t="s">
+        <v>510</v>
+      </c>
+      <c r="E97" t="s">
+        <v>387</v>
+      </c>
+      <c r="F97">
+        <v>1841</v>
+      </c>
+      <c r="G97">
+        <v>1927</v>
+      </c>
+      <c r="H97" t="s">
+        <v>449</v>
+      </c>
+      <c r="I97">
+        <v>1963</v>
+      </c>
       <c r="J97" t="s">
         <v>322</v>
       </c>
       <c r="K97" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12">
       <c r="B98" t="s">
         <v>119</v>
       </c>
+      <c r="C98" t="s">
+        <v>358</v>
+      </c>
+      <c r="D98" t="s">
+        <v>511</v>
+      </c>
+      <c r="E98" t="s">
+        <v>387</v>
+      </c>
+      <c r="F98">
+        <v>1835</v>
+      </c>
+      <c r="G98">
+        <v>1861</v>
+      </c>
+      <c r="H98" t="s">
+        <v>449</v>
+      </c>
+      <c r="I98">
+        <v>1934</v>
+      </c>
       <c r="J98" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="99" spans="2:11">
+      <c r="K98" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12">
       <c r="B99" t="s">
         <v>120</v>
       </c>
+      <c r="C99" t="s">
+        <v>358</v>
+      </c>
+      <c r="D99" t="s">
+        <v>513</v>
+      </c>
+      <c r="E99" t="s">
+        <v>387</v>
+      </c>
+      <c r="F99">
+        <v>1747</v>
+      </c>
+      <c r="G99">
+        <v>1967</v>
+      </c>
+      <c r="H99" t="s">
+        <v>356</v>
+      </c>
+      <c r="I99">
+        <v>1963</v>
+      </c>
       <c r="J99" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="100" spans="2:11">
+      <c r="K99" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12">
       <c r="B100" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="101" spans="2:11">
+      <c r="C100" t="s">
+        <v>359</v>
+      </c>
+      <c r="E100" t="s">
+        <v>387</v>
+      </c>
+      <c r="F100">
+        <v>1882</v>
+      </c>
+      <c r="G100">
+        <v>1882</v>
+      </c>
+      <c r="H100" t="s">
+        <v>387</v>
+      </c>
+      <c r="I100">
+        <v>1958</v>
+      </c>
+      <c r="J100" t="s">
+        <v>316</v>
+      </c>
+      <c r="K100" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12">
       <c r="B101" t="s">
         <v>122</v>
       </c>
+      <c r="C101" t="s">
+        <v>358</v>
+      </c>
+      <c r="D101" t="s">
+        <v>516</v>
+      </c>
+      <c r="E101" t="s">
+        <v>420</v>
+      </c>
+      <c r="F101">
+        <v>1842</v>
+      </c>
+      <c r="G101">
+        <v>1943</v>
+      </c>
+      <c r="H101" t="s">
+        <v>449</v>
+      </c>
+      <c r="I101">
+        <v>1961</v>
+      </c>
       <c r="J101" t="s">
         <v>322</v>
       </c>
       <c r="K101" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12">
       <c r="B102" t="s">
         <v>123</v>
       </c>
+      <c r="C102" t="s">
+        <v>359</v>
+      </c>
+      <c r="E102" t="s">
+        <v>387</v>
+      </c>
+      <c r="F102">
+        <v>1862</v>
+      </c>
+      <c r="G102">
+        <v>1862</v>
+      </c>
+      <c r="H102" t="s">
+        <v>387</v>
+      </c>
+      <c r="I102">
+        <v>1962</v>
+      </c>
       <c r="J102" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="103" spans="2:11">
+      <c r="K102" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12">
       <c r="B103" t="s">
         <v>124</v>
       </c>
+      <c r="C103" t="s">
+        <v>359</v>
+      </c>
+      <c r="E103" t="s">
+        <v>387</v>
+      </c>
+      <c r="F103">
+        <v>1940</v>
+      </c>
+      <c r="G103">
+        <v>1945</v>
+      </c>
+      <c r="H103" t="s">
+        <v>387</v>
+      </c>
+      <c r="I103">
+        <v>1961</v>
+      </c>
       <c r="J103" t="s">
         <v>322</v>
       </c>
       <c r="K103" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="104" spans="2:11">
+      <c r="L103" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12">
       <c r="B104" t="s">
         <v>125</v>
       </c>
+      <c r="C104" t="s">
+        <v>358</v>
+      </c>
+      <c r="D104" t="s">
+        <v>520</v>
+      </c>
+      <c r="E104" t="s">
+        <v>387</v>
+      </c>
+      <c r="F104">
+        <v>1886</v>
+      </c>
+      <c r="G104">
+        <v>1949</v>
+      </c>
+      <c r="H104" t="s">
+        <v>356</v>
+      </c>
+      <c r="I104">
+        <v>1948</v>
+      </c>
       <c r="J104" t="s">
         <v>322</v>
       </c>
@@ -4582,31 +4824,76 @@
         <v>348</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:12">
       <c r="B105" t="s">
         <v>126</v>
       </c>
+      <c r="C105" t="s">
+        <v>358</v>
+      </c>
+      <c r="D105" t="s">
+        <v>522</v>
+      </c>
+      <c r="E105" t="s">
+        <v>387</v>
+      </c>
+      <c r="F105">
+        <v>1940</v>
+      </c>
+      <c r="G105">
+        <v>1957</v>
+      </c>
+      <c r="H105" t="s">
+        <v>449</v>
+      </c>
+      <c r="I105">
+        <v>1961</v>
+      </c>
       <c r="J105" t="s">
         <v>322</v>
       </c>
       <c r="K105" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="106" spans="2:11">
+      <c r="L105" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12">
       <c r="B106" t="s">
         <v>127</v>
       </c>
+      <c r="C106" t="s">
+        <v>358</v>
+      </c>
+      <c r="D106" t="s">
+        <v>524</v>
+      </c>
+      <c r="E106" t="s">
+        <v>523</v>
+      </c>
+      <c r="F106">
+        <v>1910</v>
+      </c>
+      <c r="G106">
+        <v>1929</v>
+      </c>
+      <c r="H106" t="s">
+        <v>449</v>
+      </c>
+      <c r="I106">
+        <v>1991</v>
+      </c>
       <c r="J106" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:12">
       <c r="B107" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:12">
       <c r="B108" t="s">
         <v>129</v>
       </c>
@@ -4617,7 +4904,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:12">
       <c r="B109" t="s">
         <v>130</v>
       </c>
@@ -4628,7 +4915,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:12">
       <c r="B110" t="s">
         <v>131</v>
       </c>
@@ -4639,7 +4926,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="111" spans="2:11">
+    <row r="111" spans="2:12">
       <c r="B111" t="s">
         <v>132</v>
       </c>
@@ -4647,7 +4934,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:12">
       <c r="B112" t="s">
         <v>133</v>
       </c>
@@ -5276,25 +5563,25 @@
     </row>
     <row r="196" spans="2:10">
       <c r="B196" t="s">
+        <v>381</v>
+      </c>
+      <c r="C196" t="s">
+        <v>358</v>
+      </c>
+      <c r="D196" t="s">
         <v>382</v>
-      </c>
-      <c r="C196" t="s">
-        <v>359</v>
-      </c>
-      <c r="D196" t="s">
-        <v>383</v>
       </c>
       <c r="G196">
         <v>1839</v>
       </c>
       <c r="H196" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I196">
         <v>1963</v>
       </c>
       <c r="J196" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="197" spans="2:10">
@@ -5980,55 +6267,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E4:H32"/>
+  <dimension ref="E4:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="8:8">
+    <row r="4" spans="8:10">
       <c r="H4">
         <v>40.1</v>
       </c>
     </row>
-    <row r="5" spans="8:8">
+    <row r="5" spans="8:10">
       <c r="H5">
         <v>21.7</v>
       </c>
     </row>
-    <row r="7" spans="8:8">
+    <row r="7" spans="8:10">
       <c r="H7">
         <v>36.1</v>
       </c>
     </row>
-    <row r="9" spans="8:8">
+    <row r="9" spans="8:10">
       <c r="H9">
         <v>37.1</v>
       </c>
     </row>
-    <row r="11" spans="8:8">
+    <row r="11" spans="8:10">
       <c r="H11">
         <v>42.8</v>
       </c>
-    </row>
-    <row r="13" spans="8:8">
+      <c r="J11">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="13" spans="8:10">
       <c r="H13">
         <v>44.6</v>
       </c>
     </row>
-    <row r="15" spans="8:8">
+    <row r="14" spans="8:10">
+      <c r="J14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="8:10">
       <c r="H15">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:8">
+    <row r="17" spans="5:10">
       <c r="H17">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="18" spans="5:8">
+      <c r="J17">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10">
       <c r="E18">
         <v>39.799999999999997</v>
       </c>
@@ -6036,99 +6334,124 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="19" spans="5:8">
+    <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:8">
+    <row r="20" spans="5:10">
       <c r="E20" t="s">
+        <v>434</v>
+      </c>
+      <c r="J20">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10">
+      <c r="E21" t="s">
         <v>435</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8">
-      <c r="E21" t="s">
-        <v>436</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:8">
+    <row r="22" spans="5:10">
       <c r="E22" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10">
+      <c r="E23" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8">
-      <c r="E23" t="s">
-        <v>438</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="5:8">
+      <c r="J23">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10">
       <c r="E24" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10">
+      <c r="E25" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8">
-      <c r="E25" t="s">
-        <v>440</v>
       </c>
       <c r="H25">
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="5:8">
+    <row r="26" spans="5:10">
       <c r="E26" t="s">
+        <v>440</v>
+      </c>
+      <c r="J26">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10">
+      <c r="E27" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8">
-      <c r="E27" t="s">
-        <v>442</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:8">
+    <row r="28" spans="5:10">
       <c r="E28" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10">
+      <c r="E29" t="s">
         <v>443</v>
-      </c>
-    </row>
-    <row r="29" spans="5:8">
-      <c r="E29" t="s">
-        <v>444</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="5:8">
+      <c r="J29">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10">
       <c r="E30" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10">
+      <c r="E31" t="s">
         <v>445</v>
-      </c>
-    </row>
-    <row r="31" spans="5:8">
-      <c r="E31" t="s">
-        <v>446</v>
       </c>
       <c r="H31">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="32" spans="5:8">
+    <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H32">
         <f>SUM(H4:H31)</f>
         <v>285.7</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32:J32" si="0">SUM(I4:I31)</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>SUM(J4:J31)</f>
+        <v>173.29999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10">
+      <c r="J35">
+        <v>12.8</v>
       </c>
     </row>
   </sheetData>

--- a/municipios .xlsx
+++ b/municipios .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="532">
   <si>
     <t>Acre</t>
   </si>
@@ -1594,6 +1594,27 @@
   </si>
   <si>
     <t>Porto Chalana</t>
+  </si>
+  <si>
+    <t>General Ozório, mais conhecido como “Marquez de Herval”</t>
+  </si>
+  <si>
+    <t>barra do Rio São Bento</t>
+  </si>
+  <si>
+    <t>Hansa-Hamônia</t>
+  </si>
+  <si>
+    <t>terra da fartura</t>
+  </si>
+  <si>
+    <t>Içaroba</t>
+  </si>
+  <si>
+    <t> tipo de palmeira com nome indígena </t>
+  </si>
+  <si>
+    <t>São Sebastião</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2118,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I108" sqref="I108"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4892,11 +4913,56 @@
       <c r="B107" t="s">
         <v>128</v>
       </c>
+      <c r="C107" t="s">
+        <v>359</v>
+      </c>
+      <c r="E107" t="s">
+        <v>387</v>
+      </c>
+      <c r="F107">
+        <v>1908</v>
+      </c>
+      <c r="G107">
+        <v>1908</v>
+      </c>
+      <c r="H107" t="s">
+        <v>387</v>
+      </c>
+      <c r="I107">
+        <v>1953</v>
+      </c>
+      <c r="J107" t="s">
+        <v>316</v>
+      </c>
+      <c r="K107" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="108" spans="2:12">
       <c r="B108" t="s">
         <v>129</v>
       </c>
+      <c r="C108" t="s">
+        <v>358</v>
+      </c>
+      <c r="D108" t="s">
+        <v>222</v>
+      </c>
+      <c r="E108" t="s">
+        <v>387</v>
+      </c>
+      <c r="F108">
+        <v>1920</v>
+      </c>
+      <c r="G108">
+        <v>1954</v>
+      </c>
+      <c r="H108" t="s">
+        <v>449</v>
+      </c>
+      <c r="I108">
+        <v>1995</v>
+      </c>
       <c r="J108" t="s">
         <v>322</v>
       </c>
@@ -4908,6 +4974,27 @@
       <c r="B109" t="s">
         <v>130</v>
       </c>
+      <c r="C109" t="s">
+        <v>358</v>
+      </c>
+      <c r="D109" t="s">
+        <v>526</v>
+      </c>
+      <c r="E109" t="s">
+        <v>387</v>
+      </c>
+      <c r="F109">
+        <v>1922</v>
+      </c>
+      <c r="G109">
+        <v>1943</v>
+      </c>
+      <c r="H109" t="s">
+        <v>449</v>
+      </c>
+      <c r="I109">
+        <v>1962</v>
+      </c>
       <c r="J109" t="s">
         <v>322</v>
       </c>
@@ -4919,19 +5006,70 @@
       <c r="B110" t="s">
         <v>131</v>
       </c>
+      <c r="C110" t="s">
+        <v>358</v>
+      </c>
+      <c r="D110" t="s">
+        <v>527</v>
+      </c>
+      <c r="E110" t="s">
+        <v>387</v>
+      </c>
+      <c r="F110">
+        <v>1897</v>
+      </c>
+      <c r="G110">
+        <v>1943</v>
+      </c>
+      <c r="H110" t="s">
+        <v>356</v>
+      </c>
+      <c r="I110">
+        <v>1934</v>
+      </c>
       <c r="J110" t="s">
         <v>322</v>
       </c>
       <c r="K110" t="s">
         <v>344</v>
+      </c>
+      <c r="L110" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="111" spans="2:12">
       <c r="B111" t="s">
         <v>132</v>
       </c>
+      <c r="C111" t="s">
+        <v>358</v>
+      </c>
+      <c r="D111" t="s">
+        <v>531</v>
+      </c>
+      <c r="E111" t="s">
+        <v>426</v>
+      </c>
+      <c r="F111">
+        <v>1933</v>
+      </c>
+      <c r="G111">
+        <v>1943</v>
+      </c>
+      <c r="H111" t="s">
+        <v>449</v>
+      </c>
+      <c r="I111">
+        <v>1961</v>
+      </c>
       <c r="J111" t="s">
         <v>341</v>
+      </c>
+      <c r="K111" t="s">
+        <v>529</v>
+      </c>
+      <c r="L111" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="112" spans="2:12">
@@ -6441,7 +6579,7 @@
         <v>285.7</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32:J32" si="0">SUM(I4:I31)</f>
+        <f t="shared" ref="I32" si="0">SUM(I4:I31)</f>
         <v>0</v>
       </c>
       <c r="J32">

--- a/municipios .xlsx
+++ b/municipios .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="539">
   <si>
     <t>Acre</t>
   </si>
@@ -1615,6 +1615,27 @@
   </si>
   <si>
     <t>São Sebastião</t>
+  </si>
+  <si>
+    <t>ilha no medio do rio Itajaí - Açu</t>
+  </si>
+  <si>
+    <t>São João Batista do Imaruí</t>
+  </si>
+  <si>
+    <t>Vila Nova de Santana</t>
+  </si>
+  <si>
+    <t>Chapadão Rio dos Bugres</t>
+  </si>
+  <si>
+    <t>Fachinal Branco</t>
+  </si>
+  <si>
+    <t>Colônia do Rio do Peixe</t>
+  </si>
+  <si>
+    <t>Pinhal</t>
   </si>
 </sst>
 </file>
@@ -2117,8 +2138,8 @@
   <dimension ref="A1:P295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5076,14 +5097,56 @@
       <c r="B112" t="s">
         <v>133</v>
       </c>
+      <c r="C112" t="s">
+        <v>359</v>
+      </c>
+      <c r="E112" t="s">
+        <v>387</v>
+      </c>
+      <c r="F112">
+        <v>1845</v>
+      </c>
+      <c r="G112">
+        <v>1845</v>
+      </c>
+      <c r="H112" t="s">
+        <v>387</v>
+      </c>
+      <c r="I112">
+        <v>1958</v>
+      </c>
       <c r="J112" t="s">
-        <v>321</v>
+        <v>373</v>
+      </c>
+      <c r="K112" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="113" spans="2:12">
       <c r="B113" t="s">
         <v>134</v>
       </c>
+      <c r="C113" t="s">
+        <v>358</v>
+      </c>
+      <c r="D113" t="s">
+        <v>533</v>
+      </c>
+      <c r="E113" t="s">
+        <v>387</v>
+      </c>
+      <c r="F113">
+        <v>1800</v>
+      </c>
+      <c r="G113">
+        <v>1833</v>
+      </c>
+      <c r="H113" t="s">
+        <v>391</v>
+      </c>
+      <c r="I113">
+        <v>1890</v>
+      </c>
       <c r="J113" t="s">
         <v>322</v>
       </c>
@@ -5095,6 +5158,27 @@
       <c r="B114" t="s">
         <v>135</v>
       </c>
+      <c r="C114" t="s">
+        <v>359</v>
+      </c>
+      <c r="D114" t="s">
+        <v>534</v>
+      </c>
+      <c r="E114" t="s">
+        <v>426</v>
+      </c>
+      <c r="F114">
+        <v>1675</v>
+      </c>
+      <c r="G114">
+        <v>1958</v>
+      </c>
+      <c r="H114" t="s">
+        <v>356</v>
+      </c>
+      <c r="I114">
+        <v>1958</v>
+      </c>
       <c r="J114" t="s">
         <v>322</v>
       </c>
@@ -5106,6 +5190,27 @@
       <c r="B115" t="s">
         <v>136</v>
       </c>
+      <c r="C115" t="s">
+        <v>358</v>
+      </c>
+      <c r="D115" t="s">
+        <v>535</v>
+      </c>
+      <c r="E115" t="s">
+        <v>387</v>
+      </c>
+      <c r="F115">
+        <v>1930</v>
+      </c>
+      <c r="G115">
+        <v>1958</v>
+      </c>
+      <c r="H115" t="s">
+        <v>449</v>
+      </c>
+      <c r="I115">
+        <v>1962</v>
+      </c>
       <c r="J115" t="s">
         <v>341</v>
       </c>
@@ -5114,6 +5219,21 @@
       <c r="B116" t="s">
         <v>137</v>
       </c>
+      <c r="E116" t="s">
+        <v>387</v>
+      </c>
+      <c r="F116">
+        <v>1860</v>
+      </c>
+      <c r="G116">
+        <v>1886</v>
+      </c>
+      <c r="H116" t="s">
+        <v>449</v>
+      </c>
+      <c r="I116">
+        <v>1934</v>
+      </c>
       <c r="J116" t="s">
         <v>322</v>
       </c>
@@ -5125,6 +5245,27 @@
       <c r="B117" t="s">
         <v>138</v>
       </c>
+      <c r="C117" t="s">
+        <v>358</v>
+      </c>
+      <c r="D117" t="s">
+        <v>536</v>
+      </c>
+      <c r="E117" t="s">
+        <v>387</v>
+      </c>
+      <c r="F117">
+        <v>1912</v>
+      </c>
+      <c r="G117">
+        <v>1943</v>
+      </c>
+      <c r="H117" t="s">
+        <v>449</v>
+      </c>
+      <c r="I117">
+        <v>1995</v>
+      </c>
       <c r="J117" t="s">
         <v>322</v>
       </c>
@@ -5136,6 +5277,27 @@
       <c r="B118" t="s">
         <v>139</v>
       </c>
+      <c r="C118" t="s">
+        <v>358</v>
+      </c>
+      <c r="D118" t="s">
+        <v>537</v>
+      </c>
+      <c r="E118" t="s">
+        <v>387</v>
+      </c>
+      <c r="F118">
+        <v>1915</v>
+      </c>
+      <c r="G118">
+        <v>1925</v>
+      </c>
+      <c r="H118" t="s">
+        <v>449</v>
+      </c>
+      <c r="I118">
+        <v>1963</v>
+      </c>
       <c r="J118" t="s">
         <v>322</v>
       </c>
@@ -5146,6 +5308,27 @@
     <row r="119" spans="2:12">
       <c r="B119" t="s">
         <v>140</v>
+      </c>
+      <c r="C119" t="s">
+        <v>358</v>
+      </c>
+      <c r="D119" t="s">
+        <v>538</v>
+      </c>
+      <c r="E119" t="s">
+        <v>387</v>
+      </c>
+      <c r="F119">
+        <v>1928</v>
+      </c>
+      <c r="G119">
+        <v>1953</v>
+      </c>
+      <c r="H119" t="s">
+        <v>449</v>
+      </c>
+      <c r="I119">
+        <v>1988</v>
       </c>
       <c r="J119" t="s">
         <v>322</v>

--- a/municipios .xlsx
+++ b/municipios .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="540">
   <si>
     <t>Acre</t>
   </si>
@@ -1029,9 +1029,6 @@
     <t>estruendo de rio pequeño</t>
   </si>
   <si>
-    <t xml:space="preserve">rio grande </t>
-  </si>
-  <si>
     <t>rio bonito</t>
   </si>
   <si>
@@ -1636,6 +1633,12 @@
   </si>
   <si>
     <t>Pinhal</t>
+  </si>
+  <si>
+    <t>Lajeado Grande ou Fonte Grande</t>
+  </si>
+  <si>
+    <t>Harmonia</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2142,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I119" sqref="I119"/>
+      <selection pane="bottomLeft" activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2149,22 +2152,22 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1" t="s">
         <v>421</v>
       </c>
-      <c r="F1" t="s">
-        <v>422</v>
-      </c>
       <c r="G1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I1" t="s">
         <v>371</v>
-      </c>
-      <c r="H1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I1" t="s">
-        <v>372</v>
       </c>
       <c r="J1" t="s">
         <v>317</v>
@@ -2178,13 +2181,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G2">
         <v>1934</v>
       </c>
       <c r="H2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J2" t="s">
         <v>316</v>
@@ -2193,7 +2196,7 @@
         <v>316</v>
       </c>
       <c r="P2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2204,22 +2207,22 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G3">
         <v>1922</v>
       </c>
       <c r="H3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J3" t="s">
         <v>316</v>
       </c>
       <c r="O3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2230,19 +2233,19 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G4">
         <v>1962</v>
       </c>
       <c r="H4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2253,16 +2256,16 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G5">
         <v>1960</v>
       </c>
       <c r="H5" t="s">
+        <v>353</v>
+      </c>
+      <c r="J5" t="s">
         <v>354</v>
-      </c>
-      <c r="J5" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2273,16 +2276,16 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G6">
         <v>1943</v>
       </c>
       <c r="H6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2293,16 +2296,16 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G7">
         <v>1955</v>
       </c>
       <c r="H7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2313,16 +2316,16 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G8">
         <v>1978</v>
       </c>
       <c r="H8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2333,16 +2336,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G9">
         <v>1961</v>
       </c>
       <c r="H9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2353,13 +2356,13 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G10">
         <v>1962</v>
       </c>
       <c r="H10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J10" t="s">
         <v>316</v>
@@ -2373,16 +2376,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G11">
         <v>1992</v>
       </c>
       <c r="H11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2393,13 +2396,13 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G12">
         <v>1950</v>
       </c>
       <c r="H12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J12" t="s">
         <v>316</v>
@@ -2413,13 +2416,13 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G13">
         <v>1891</v>
       </c>
       <c r="H13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J13" t="s">
         <v>316</v>
@@ -2433,13 +2436,13 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G14">
         <v>1929</v>
       </c>
       <c r="H14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J14" t="s">
         <v>316</v>
@@ -2453,13 +2456,13 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G15">
         <v>1906</v>
       </c>
       <c r="H15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J15" t="s">
         <v>316</v>
@@ -2473,13 +2476,13 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G16">
         <v>1963</v>
       </c>
       <c r="H16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J16" t="s">
         <v>316</v>
@@ -2493,19 +2496,19 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G17">
         <v>1943</v>
       </c>
       <c r="H17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J17" t="s">
         <v>322</v>
       </c>
       <c r="K17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2516,19 +2519,19 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G18">
         <v>1943</v>
       </c>
       <c r="H18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J18" t="s">
         <v>322</v>
       </c>
       <c r="K18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2539,19 +2542,19 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G19">
         <v>1943</v>
       </c>
       <c r="H19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J19" t="s">
+        <v>366</v>
+      </c>
+      <c r="K19" t="s">
         <v>367</v>
-      </c>
-      <c r="K19" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2562,19 +2565,19 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G20">
         <v>1880</v>
       </c>
       <c r="H20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J20" t="s">
         <v>322</v>
       </c>
       <c r="K20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2585,19 +2588,19 @@
         <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G21">
         <v>1934</v>
       </c>
       <c r="H21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I21">
         <v>1959</v>
       </c>
       <c r="J21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2608,22 +2611,22 @@
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G22">
         <v>1943</v>
       </c>
       <c r="H22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I22">
         <v>1961</v>
       </c>
       <c r="J22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2634,19 +2637,19 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G23">
         <v>1950</v>
       </c>
       <c r="H23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I23">
         <v>1992</v>
       </c>
       <c r="J23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2657,19 +2660,19 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G24">
         <v>1919</v>
       </c>
       <c r="H24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I24">
         <v>1963</v>
       </c>
       <c r="J24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2680,19 +2683,19 @@
         <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G25">
         <v>1957</v>
       </c>
       <c r="H25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I25">
         <v>1964</v>
       </c>
       <c r="J25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2703,19 +2706,19 @@
         <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G26">
         <v>1943</v>
       </c>
       <c r="H26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I26">
         <v>1964</v>
       </c>
       <c r="J26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2726,19 +2729,19 @@
         <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G27">
         <v>1988</v>
       </c>
       <c r="H27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I27">
         <v>1995</v>
       </c>
       <c r="J27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2749,19 +2752,19 @@
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G28">
         <v>1960</v>
       </c>
       <c r="H28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I28">
         <v>1992</v>
       </c>
       <c r="J28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2772,13 +2775,13 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G29">
         <v>1954</v>
       </c>
       <c r="H29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I29">
         <v>1964</v>
@@ -2787,7 +2790,7 @@
         <v>322</v>
       </c>
       <c r="K29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2798,42 +2801,42 @@
         <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G30">
         <v>1990</v>
       </c>
       <c r="H30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I30">
         <v>1995</v>
       </c>
       <c r="J30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="B31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G31">
         <v>1858</v>
       </c>
       <c r="H31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I31">
         <v>2013</v>
       </c>
       <c r="J31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2841,22 +2844,22 @@
         <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G32">
         <v>1944</v>
       </c>
       <c r="H32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I32">
         <v>1995</v>
       </c>
       <c r="J32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -2864,19 +2867,19 @@
         <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G33">
         <v>1951</v>
       </c>
       <c r="H33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I33">
         <v>1995</v>
       </c>
       <c r="J33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -2884,22 +2887,22 @@
         <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G34">
         <v>1861</v>
       </c>
       <c r="H34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I34">
         <v>1961</v>
       </c>
       <c r="J34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="2:11">
@@ -2907,19 +2910,19 @@
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G35">
         <v>1957</v>
       </c>
       <c r="H35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I35">
         <v>1994</v>
       </c>
       <c r="J35" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="2:11">
@@ -2927,22 +2930,22 @@
         <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G36">
         <v>1964</v>
       </c>
       <c r="H36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I36">
         <v>1992</v>
       </c>
       <c r="J36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="2:11">
@@ -2950,16 +2953,16 @@
         <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G37">
         <v>1880</v>
       </c>
       <c r="H37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I37">
         <v>1961</v>
@@ -2973,13 +2976,13 @@
         <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G38">
         <v>1882</v>
       </c>
       <c r="H38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I38">
         <v>1894</v>
@@ -2988,7 +2991,7 @@
         <v>322</v>
       </c>
       <c r="K38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -2999,7 +3002,7 @@
         <v>1873</v>
       </c>
       <c r="H39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I39">
         <v>1880</v>
@@ -3013,16 +3016,16 @@
         <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G40">
         <v>1929</v>
       </c>
       <c r="H40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I40">
         <v>1994</v>
@@ -3031,7 +3034,7 @@
         <v>322</v>
       </c>
       <c r="K40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -3039,22 +3042,22 @@
         <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G41">
         <v>1949</v>
       </c>
       <c r="H41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I41">
         <v>1967</v>
       </c>
       <c r="J41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="2:11">
@@ -3062,22 +3065,22 @@
         <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G42">
         <v>1957</v>
       </c>
       <c r="H42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I42">
         <v>1997</v>
       </c>
       <c r="J42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -3085,22 +3088,22 @@
         <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G43">
         <v>1977</v>
       </c>
       <c r="H43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I43">
         <v>1993</v>
       </c>
       <c r="J43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -3108,22 +3111,22 @@
         <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G44">
         <v>1920</v>
       </c>
       <c r="H44" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I44">
         <v>1922</v>
       </c>
       <c r="J44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -3131,19 +3134,19 @@
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G45">
         <v>1967</v>
       </c>
       <c r="H45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I45">
         <v>1992</v>
       </c>
       <c r="J45" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -3151,16 +3154,16 @@
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G46">
         <v>1943</v>
       </c>
       <c r="H46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I46">
         <v>1962</v>
@@ -3169,7 +3172,7 @@
         <v>322</v>
       </c>
       <c r="K46" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="2:11">
@@ -3177,22 +3180,22 @@
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G47">
         <v>1892</v>
       </c>
       <c r="H47" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I47">
         <v>1955</v>
       </c>
       <c r="J47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K47" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="2:11">
@@ -3200,22 +3203,22 @@
         <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G48">
         <v>1957</v>
       </c>
       <c r="H48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I48">
         <v>1991</v>
       </c>
       <c r="J48" t="s">
+        <v>407</v>
+      </c>
+      <c r="K48" t="s">
         <v>408</v>
-      </c>
-      <c r="K48" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="49" spans="2:11">
@@ -3223,13 +3226,13 @@
         <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G49">
         <v>1995</v>
       </c>
       <c r="H49" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I49">
         <v>1995</v>
@@ -3243,16 +3246,16 @@
         <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D50" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G50">
         <v>1890</v>
       </c>
       <c r="H50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I50">
         <v>1881</v>
@@ -3266,22 +3269,22 @@
         <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G51">
         <v>1881</v>
       </c>
       <c r="H51" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I51">
         <v>1934</v>
       </c>
       <c r="J51" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52" spans="2:11">
@@ -3289,7 +3292,7 @@
         <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D52" t="s">
         <v>263</v>
@@ -3298,7 +3301,7 @@
         <v>1955</v>
       </c>
       <c r="H52" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I52">
         <v>1965</v>
@@ -3307,7 +3310,7 @@
         <v>322</v>
       </c>
       <c r="K52" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="2:11">
@@ -3315,16 +3318,16 @@
         <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D53" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G53">
         <v>1909</v>
       </c>
       <c r="H53" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I53">
         <v>1992</v>
@@ -3333,7 +3336,7 @@
         <v>316</v>
       </c>
       <c r="K53" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="2:11">
@@ -3341,16 +3344,16 @@
         <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G54">
         <v>1849</v>
       </c>
       <c r="H54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I54">
         <v>1884</v>
@@ -3359,7 +3362,7 @@
         <v>322</v>
       </c>
       <c r="K54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55" spans="2:11">
@@ -3367,19 +3370,19 @@
         <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G55">
         <v>1827</v>
       </c>
       <c r="H55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I55">
         <v>1897</v>
       </c>
       <c r="J55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="2:11">
@@ -3387,13 +3390,13 @@
         <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D56" t="s">
+        <v>418</v>
+      </c>
+      <c r="E56" t="s">
         <v>419</v>
-      </c>
-      <c r="E56" t="s">
-        <v>420</v>
       </c>
       <c r="F56">
         <v>1856</v>
@@ -3402,13 +3405,13 @@
         <v>1949</v>
       </c>
       <c r="H56" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I56">
         <v>1961</v>
       </c>
       <c r="J56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="2:11">
@@ -3416,10 +3419,10 @@
         <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E57" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F57">
         <v>1630</v>
@@ -3428,16 +3431,16 @@
         <v>1917</v>
       </c>
       <c r="H57" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I57">
         <v>1958</v>
       </c>
       <c r="J57" t="s">
+        <v>422</v>
+      </c>
+      <c r="K57" t="s">
         <v>423</v>
-      </c>
-      <c r="K57" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="58" spans="2:11">
@@ -3445,13 +3448,13 @@
         <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D58" t="s">
+        <v>424</v>
+      </c>
+      <c r="E58" t="s">
         <v>425</v>
-      </c>
-      <c r="E58" t="s">
-        <v>426</v>
       </c>
       <c r="F58">
         <v>1839</v>
@@ -3460,13 +3463,13 @@
         <v>1854</v>
       </c>
       <c r="H58" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I58">
         <v>1881</v>
       </c>
       <c r="J58" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="2:11">
@@ -3474,10 +3477,10 @@
         <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E59" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F59">
         <v>1875</v>
@@ -3486,16 +3489,16 @@
         <v>1934</v>
       </c>
       <c r="H59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I59">
         <v>1962</v>
       </c>
       <c r="J59" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" spans="2:11">
@@ -3503,13 +3506,13 @@
         <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D60" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F60">
         <v>1888</v>
@@ -3518,16 +3521,16 @@
         <v>1934</v>
       </c>
       <c r="H60" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I60">
         <v>1911</v>
       </c>
       <c r="J60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K60" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="2:11">
@@ -3535,13 +3538,13 @@
         <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D61" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E61" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F61">
         <v>1727</v>
@@ -3550,16 +3553,16 @@
         <v>1899</v>
       </c>
       <c r="H61" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I61">
         <v>1994</v>
       </c>
       <c r="J61" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K61" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" spans="2:11">
@@ -3567,13 +3570,13 @@
         <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D62" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E62" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F62">
         <v>1906</v>
@@ -3582,16 +3585,16 @@
         <v>1943</v>
       </c>
       <c r="H62" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I62">
         <v>1948</v>
       </c>
       <c r="J62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K62" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="2:11">
@@ -3599,19 +3602,19 @@
         <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D63" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E63" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G63">
         <v>1989</v>
       </c>
       <c r="H63" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I63">
         <v>1992</v>
@@ -3620,7 +3623,7 @@
         <v>322</v>
       </c>
       <c r="K63" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="2:11">
@@ -3628,19 +3631,19 @@
         <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E64" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G64">
         <v>1917</v>
       </c>
       <c r="H64" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I64">
         <v>1963</v>
@@ -3649,7 +3652,7 @@
         <v>322</v>
       </c>
       <c r="K64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -3657,19 +3660,19 @@
         <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E65" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G65">
         <v>1933</v>
       </c>
       <c r="H65" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I65">
         <v>1962</v>
@@ -3678,7 +3681,7 @@
         <v>322</v>
       </c>
       <c r="K65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66" spans="2:11">
@@ -3686,13 +3689,13 @@
         <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D66" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E66" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F66">
         <v>1934</v>
@@ -3701,7 +3704,7 @@
         <v>1957</v>
       </c>
       <c r="H66" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I66">
         <v>1989</v>
@@ -3710,7 +3713,7 @@
         <v>316</v>
       </c>
       <c r="K66" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -3718,13 +3721,13 @@
         <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D67" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E67" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F67">
         <v>1880</v>
@@ -3733,16 +3736,16 @@
         <v>1916</v>
       </c>
       <c r="H67" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I67">
         <v>1991</v>
       </c>
       <c r="J67" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K67" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="68" spans="2:11">
@@ -3750,10 +3753,10 @@
         <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F68">
         <v>1922</v>
@@ -3762,16 +3765,16 @@
         <v>1986</v>
       </c>
       <c r="H68" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I68">
         <v>1997</v>
       </c>
       <c r="J68" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K68" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -3779,10 +3782,10 @@
         <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E69" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F69">
         <v>1917</v>
@@ -3791,16 +3794,16 @@
         <v>1917</v>
       </c>
       <c r="H69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I69">
         <v>1917</v>
       </c>
       <c r="J69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K69" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="2:11">
@@ -3808,13 +3811,13 @@
         <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D70" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E70" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F70">
         <v>1885</v>
@@ -3823,16 +3826,16 @@
         <v>1991</v>
       </c>
       <c r="H70" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I70">
         <v>1991</v>
       </c>
       <c r="J70" t="s">
+        <v>462</v>
+      </c>
+      <c r="K70" t="s">
         <v>463</v>
-      </c>
-      <c r="K70" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -3840,13 +3843,13 @@
         <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D71" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E71" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F71">
         <v>1925</v>
@@ -3855,7 +3858,7 @@
         <v>1925</v>
       </c>
       <c r="H71" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I71">
         <v>1934</v>
@@ -3869,10 +3872,10 @@
         <v>93</v>
       </c>
       <c r="D72" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E72" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F72">
         <v>1921</v>
@@ -3881,13 +3884,13 @@
         <v>192</v>
       </c>
       <c r="H72" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I72">
         <v>1992</v>
       </c>
       <c r="J72" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="2:11">
@@ -3895,10 +3898,10 @@
         <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E73" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F73">
         <v>1929</v>
@@ -3907,7 +3910,7 @@
         <v>1950</v>
       </c>
       <c r="H73" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I73">
         <v>1961</v>
@@ -3916,7 +3919,7 @@
         <v>316</v>
       </c>
       <c r="K73" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="2:11">
@@ -3924,19 +3927,19 @@
         <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D74" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E74" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G74">
         <v>1958</v>
       </c>
       <c r="H74" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I74">
         <v>1992</v>
@@ -3945,7 +3948,7 @@
         <v>316</v>
       </c>
       <c r="K74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="75" spans="2:11">
@@ -3953,13 +3956,13 @@
         <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D75" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E75" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F75">
         <v>1771</v>
@@ -3968,7 +3971,7 @@
         <v>1920</v>
       </c>
       <c r="H75" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I75">
         <v>1982</v>
@@ -3977,7 +3980,7 @@
         <v>316</v>
       </c>
       <c r="K75" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="76" spans="2:11">
@@ -3985,13 +3988,13 @@
         <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D76" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E76" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F76">
         <v>1897</v>
@@ -4000,7 +4003,7 @@
         <v>1943</v>
       </c>
       <c r="H76" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I76">
         <v>1958</v>
@@ -4009,7 +4012,7 @@
         <v>322</v>
       </c>
       <c r="K76" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="77" spans="2:11">
@@ -4017,13 +4020,13 @@
         <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D77" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E77" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F77">
         <v>1880</v>
@@ -4032,16 +4035,16 @@
         <v>1948</v>
       </c>
       <c r="H77" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I77">
         <v>1925</v>
       </c>
       <c r="J77" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K77" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78" spans="2:11">
@@ -4049,10 +4052,10 @@
         <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F78">
         <v>1931</v>
@@ -4061,7 +4064,7 @@
         <v>1931</v>
       </c>
       <c r="H78" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I78">
         <v>1958</v>
@@ -4070,7 +4073,7 @@
         <v>322</v>
       </c>
       <c r="K78" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="2:11">
@@ -4078,13 +4081,13 @@
         <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D79" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E79" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F79">
         <v>1934</v>
@@ -4093,7 +4096,7 @@
         <v>1944</v>
       </c>
       <c r="H79" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I79">
         <v>1995</v>
@@ -4102,7 +4105,7 @@
         <v>322</v>
       </c>
       <c r="K79" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="80" spans="2:11">
@@ -4110,13 +4113,13 @@
         <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D80" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E80" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F80">
         <v>1679</v>
@@ -4125,16 +4128,16 @@
         <v>1864</v>
       </c>
       <c r="H80" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I80">
         <v>1869</v>
       </c>
       <c r="J80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K80" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="81" spans="2:12">
@@ -4142,10 +4145,10 @@
         <v>102</v>
       </c>
       <c r="C81" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E81" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F81">
         <v>1934</v>
@@ -4154,16 +4157,16 @@
         <v>1934</v>
       </c>
       <c r="H81" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I81">
         <v>1956</v>
       </c>
       <c r="J81" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K81" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82" spans="2:12">
@@ -4171,13 +4174,13 @@
         <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D82" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E82" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F82">
         <v>1917</v>
@@ -4186,7 +4189,7 @@
         <v>1938</v>
       </c>
       <c r="H82" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I82">
         <v>1954</v>
@@ -4195,7 +4198,7 @@
         <v>316</v>
       </c>
       <c r="K82" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="2:12">
@@ -4203,7 +4206,7 @@
         <v>104</v>
       </c>
       <c r="E83" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F83">
         <v>1919</v>
@@ -4212,7 +4215,7 @@
         <v>1962</v>
       </c>
       <c r="H83" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I83">
         <v>1962</v>
@@ -4221,7 +4224,7 @@
         <v>316</v>
       </c>
       <c r="K83" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="2:12">
@@ -4229,13 +4232,13 @@
         <v>105</v>
       </c>
       <c r="E84" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G84">
         <v>1948</v>
       </c>
       <c r="H84" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I84">
         <v>1988</v>
@@ -4244,7 +4247,7 @@
         <v>316</v>
       </c>
       <c r="K84" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="85" spans="2:12">
@@ -4252,13 +4255,13 @@
         <v>106</v>
       </c>
       <c r="C85" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D85" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E85" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F85">
         <v>1930</v>
@@ -4267,16 +4270,16 @@
         <v>1961</v>
       </c>
       <c r="H85" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I85">
         <v>1995</v>
       </c>
       <c r="J85" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K85" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" spans="2:12">
@@ -4284,25 +4287,25 @@
         <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E86" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G86">
         <v>1920</v>
       </c>
       <c r="H86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I86">
         <v>1993</v>
       </c>
       <c r="J86" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K86" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87" spans="2:12">
@@ -4310,13 +4313,13 @@
         <v>108</v>
       </c>
       <c r="C87" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D87" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E87" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F87">
         <v>1870</v>
@@ -4325,16 +4328,16 @@
         <v>1943</v>
       </c>
       <c r="H87" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I87">
         <v>1963</v>
       </c>
       <c r="J87" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K87" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="88" spans="2:12">
@@ -4342,13 +4345,13 @@
         <v>109</v>
       </c>
       <c r="C88" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D88" t="s">
+        <v>492</v>
+      </c>
+      <c r="E88" t="s">
         <v>493</v>
-      </c>
-      <c r="E88" t="s">
-        <v>494</v>
       </c>
       <c r="F88">
         <v>1910</v>
@@ -4357,16 +4360,16 @@
         <v>1919</v>
       </c>
       <c r="H88" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I88">
         <v>1958</v>
       </c>
       <c r="J88" t="s">
+        <v>494</v>
+      </c>
+      <c r="K88" t="s">
         <v>495</v>
-      </c>
-      <c r="K88" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="89" spans="2:12">
@@ -4374,10 +4377,10 @@
         <v>110</v>
       </c>
       <c r="C89" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E89" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F89">
         <v>1952</v>
@@ -4386,16 +4389,16 @@
         <v>1952</v>
       </c>
       <c r="H89" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I89">
         <v>1995</v>
       </c>
       <c r="J89" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K89" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="90" spans="2:12">
@@ -4403,13 +4406,13 @@
         <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D90" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E90" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F90">
         <v>1675</v>
@@ -4418,7 +4421,7 @@
         <v>1894</v>
       </c>
       <c r="H90" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I90">
         <v>1726</v>
@@ -4427,7 +4430,7 @@
         <v>316</v>
       </c>
       <c r="K90" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="91" spans="2:12">
@@ -4435,13 +4438,13 @@
         <v>112</v>
       </c>
       <c r="C91" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D91" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E91" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F91">
         <v>1953</v>
@@ -4450,16 +4453,16 @@
         <v>1985</v>
       </c>
       <c r="H91" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I91">
         <v>1992</v>
       </c>
       <c r="J91" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K91" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="92" spans="2:12">
@@ -4467,10 +4470,10 @@
         <v>113</v>
       </c>
       <c r="C92" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E92" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F92">
         <v>1912</v>
@@ -4479,16 +4482,16 @@
         <v>1912</v>
       </c>
       <c r="H92" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I92">
         <v>1989</v>
       </c>
       <c r="J92" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K92" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="93" spans="2:12">
@@ -4496,13 +4499,13 @@
         <v>114</v>
       </c>
       <c r="C93" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D93" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E93" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F93">
         <v>1937</v>
@@ -4511,16 +4514,16 @@
         <v>1961</v>
       </c>
       <c r="H93" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I93">
         <v>1961</v>
       </c>
       <c r="J93" t="s">
+        <v>502</v>
+      </c>
+      <c r="K93" t="s">
         <v>503</v>
-      </c>
-      <c r="K93" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="94" spans="2:12">
@@ -4528,10 +4531,10 @@
         <v>115</v>
       </c>
       <c r="C94" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E94" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F94">
         <v>1949</v>
@@ -4540,7 +4543,7 @@
         <v>1949</v>
       </c>
       <c r="H94" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I94">
         <v>1995</v>
@@ -4549,7 +4552,7 @@
         <v>316</v>
       </c>
       <c r="K94" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="95" spans="2:12">
@@ -4557,13 +4560,13 @@
         <v>116</v>
       </c>
       <c r="C95" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D95" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E95" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F95">
         <v>1940</v>
@@ -4572,16 +4575,16 @@
         <v>1959</v>
       </c>
       <c r="H95" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I95">
         <v>1962</v>
       </c>
       <c r="J95" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K95" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="96" spans="2:12">
@@ -4589,10 +4592,10 @@
         <v>117</v>
       </c>
       <c r="C96" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E96" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F96">
         <v>1666</v>
@@ -4601,7 +4604,7 @@
         <v>1666</v>
       </c>
       <c r="H96" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I96">
         <v>1961</v>
@@ -4610,10 +4613,10 @@
         <v>322</v>
       </c>
       <c r="K96" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L96" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="97" spans="2:12">
@@ -4621,13 +4624,13 @@
         <v>118</v>
       </c>
       <c r="C97" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D97" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E97" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F97">
         <v>1841</v>
@@ -4636,7 +4639,7 @@
         <v>1927</v>
       </c>
       <c r="H97" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I97">
         <v>1963</v>
@@ -4645,7 +4648,7 @@
         <v>322</v>
       </c>
       <c r="K97" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="98" spans="2:12">
@@ -4653,13 +4656,13 @@
         <v>119</v>
       </c>
       <c r="C98" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D98" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E98" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F98">
         <v>1835</v>
@@ -4668,7 +4671,7 @@
         <v>1861</v>
       </c>
       <c r="H98" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I98">
         <v>1934</v>
@@ -4677,7 +4680,7 @@
         <v>316</v>
       </c>
       <c r="K98" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="99" spans="2:12">
@@ -4685,13 +4688,13 @@
         <v>120</v>
       </c>
       <c r="C99" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D99" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E99" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F99">
         <v>1747</v>
@@ -4700,7 +4703,7 @@
         <v>1967</v>
       </c>
       <c r="H99" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I99">
         <v>1963</v>
@@ -4709,7 +4712,7 @@
         <v>316</v>
       </c>
       <c r="K99" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="100" spans="2:12">
@@ -4717,10 +4720,10 @@
         <v>121</v>
       </c>
       <c r="C100" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E100" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F100">
         <v>1882</v>
@@ -4729,7 +4732,7 @@
         <v>1882</v>
       </c>
       <c r="H100" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I100">
         <v>1958</v>
@@ -4738,7 +4741,7 @@
         <v>316</v>
       </c>
       <c r="K100" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="101" spans="2:12">
@@ -4746,13 +4749,13 @@
         <v>122</v>
       </c>
       <c r="C101" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D101" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E101" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F101">
         <v>1842</v>
@@ -4761,7 +4764,7 @@
         <v>1943</v>
       </c>
       <c r="H101" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I101">
         <v>1961</v>
@@ -4770,7 +4773,7 @@
         <v>322</v>
       </c>
       <c r="K101" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="102" spans="2:12">
@@ -4778,10 +4781,10 @@
         <v>123</v>
       </c>
       <c r="C102" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E102" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F102">
         <v>1862</v>
@@ -4790,16 +4793,16 @@
         <v>1862</v>
       </c>
       <c r="H102" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I102">
         <v>1962</v>
       </c>
       <c r="J102" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K102" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103" spans="2:12">
@@ -4807,10 +4810,10 @@
         <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E103" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F103">
         <v>1940</v>
@@ -4819,7 +4822,7 @@
         <v>1945</v>
       </c>
       <c r="H103" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I103">
         <v>1961</v>
@@ -4828,10 +4831,10 @@
         <v>322</v>
       </c>
       <c r="K103" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L103" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="104" spans="2:12">
@@ -4839,13 +4842,13 @@
         <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D104" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E104" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F104">
         <v>1886</v>
@@ -4854,7 +4857,7 @@
         <v>1949</v>
       </c>
       <c r="H104" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I104">
         <v>1948</v>
@@ -4863,7 +4866,7 @@
         <v>322</v>
       </c>
       <c r="K104" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="105" spans="2:12">
@@ -4871,13 +4874,13 @@
         <v>126</v>
       </c>
       <c r="C105" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D105" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F105">
         <v>1940</v>
@@ -4886,7 +4889,7 @@
         <v>1957</v>
       </c>
       <c r="H105" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I105">
         <v>1961</v>
@@ -4895,10 +4898,10 @@
         <v>322</v>
       </c>
       <c r="K105" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L105" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="106" spans="2:12">
@@ -4906,13 +4909,13 @@
         <v>127</v>
       </c>
       <c r="C106" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D106" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E106" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F106">
         <v>1910</v>
@@ -4921,13 +4924,13 @@
         <v>1929</v>
       </c>
       <c r="H106" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I106">
         <v>1991</v>
       </c>
       <c r="J106" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="107" spans="2:12">
@@ -4935,10 +4938,10 @@
         <v>128</v>
       </c>
       <c r="C107" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E107" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F107">
         <v>1908</v>
@@ -4947,7 +4950,7 @@
         <v>1908</v>
       </c>
       <c r="H107" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I107">
         <v>1953</v>
@@ -4956,7 +4959,7 @@
         <v>316</v>
       </c>
       <c r="K107" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" spans="2:12">
@@ -4964,13 +4967,13 @@
         <v>129</v>
       </c>
       <c r="C108" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D108" t="s">
         <v>222</v>
       </c>
       <c r="E108" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F108">
         <v>1920</v>
@@ -4979,7 +4982,7 @@
         <v>1954</v>
       </c>
       <c r="H108" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I108">
         <v>1995</v>
@@ -4988,7 +4991,7 @@
         <v>322</v>
       </c>
       <c r="K108" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="109" spans="2:12">
@@ -4996,13 +4999,13 @@
         <v>130</v>
       </c>
       <c r="C109" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D109" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F109">
         <v>1922</v>
@@ -5011,7 +5014,7 @@
         <v>1943</v>
       </c>
       <c r="H109" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I109">
         <v>1962</v>
@@ -5020,7 +5023,7 @@
         <v>322</v>
       </c>
       <c r="K109" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="110" spans="2:12">
@@ -5028,13 +5031,13 @@
         <v>131</v>
       </c>
       <c r="C110" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D110" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E110" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F110">
         <v>1897</v>
@@ -5043,7 +5046,7 @@
         <v>1943</v>
       </c>
       <c r="H110" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I110">
         <v>1934</v>
@@ -5052,10 +5055,10 @@
         <v>322</v>
       </c>
       <c r="K110" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L110" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="111" spans="2:12">
@@ -5063,13 +5066,13 @@
         <v>132</v>
       </c>
       <c r="C111" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D111" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E111" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F111">
         <v>1933</v>
@@ -5078,19 +5081,19 @@
         <v>1943</v>
       </c>
       <c r="H111" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I111">
         <v>1961</v>
       </c>
       <c r="J111" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K111" t="s">
+        <v>528</v>
+      </c>
+      <c r="L111" t="s">
         <v>529</v>
-      </c>
-      <c r="L111" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="112" spans="2:12">
@@ -5098,10 +5101,10 @@
         <v>133</v>
       </c>
       <c r="C112" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E112" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F112">
         <v>1845</v>
@@ -5110,16 +5113,16 @@
         <v>1845</v>
       </c>
       <c r="H112" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I112">
         <v>1958</v>
       </c>
       <c r="J112" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K112" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="113" spans="2:12">
@@ -5127,13 +5130,13 @@
         <v>134</v>
       </c>
       <c r="C113" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D113" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E113" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F113">
         <v>1800</v>
@@ -5142,7 +5145,7 @@
         <v>1833</v>
       </c>
       <c r="H113" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I113">
         <v>1890</v>
@@ -5151,7 +5154,7 @@
         <v>322</v>
       </c>
       <c r="K113" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="114" spans="2:12">
@@ -5159,13 +5162,13 @@
         <v>135</v>
       </c>
       <c r="C114" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D114" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E114" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F114">
         <v>1675</v>
@@ -5174,7 +5177,7 @@
         <v>1958</v>
       </c>
       <c r="H114" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I114">
         <v>1958</v>
@@ -5183,7 +5186,7 @@
         <v>322</v>
       </c>
       <c r="K114" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="2:12">
@@ -5191,13 +5194,13 @@
         <v>136</v>
       </c>
       <c r="C115" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D115" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E115" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F115">
         <v>1930</v>
@@ -5206,13 +5209,13 @@
         <v>1958</v>
       </c>
       <c r="H115" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I115">
         <v>1962</v>
       </c>
       <c r="J115" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="116" spans="2:12">
@@ -5220,7 +5223,7 @@
         <v>137</v>
       </c>
       <c r="E116" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F116">
         <v>1860</v>
@@ -5229,7 +5232,7 @@
         <v>1886</v>
       </c>
       <c r="H116" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I116">
         <v>1934</v>
@@ -5238,7 +5241,7 @@
         <v>322</v>
       </c>
       <c r="K116" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="117" spans="2:12">
@@ -5246,13 +5249,13 @@
         <v>138</v>
       </c>
       <c r="C117" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D117" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E117" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F117">
         <v>1912</v>
@@ -5261,7 +5264,7 @@
         <v>1943</v>
       </c>
       <c r="H117" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I117">
         <v>1995</v>
@@ -5270,7 +5273,7 @@
         <v>322</v>
       </c>
       <c r="K117" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="118" spans="2:12">
@@ -5278,13 +5281,13 @@
         <v>139</v>
       </c>
       <c r="C118" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D118" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E118" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F118">
         <v>1915</v>
@@ -5293,7 +5296,7 @@
         <v>1925</v>
       </c>
       <c r="H118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I118">
         <v>1963</v>
@@ -5302,7 +5305,7 @@
         <v>322</v>
       </c>
       <c r="K118" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="119" spans="2:12">
@@ -5310,13 +5313,13 @@
         <v>140</v>
       </c>
       <c r="C119" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D119" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E119" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F119">
         <v>1928</v>
@@ -5325,7 +5328,7 @@
         <v>1953</v>
       </c>
       <c r="H119" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I119">
         <v>1988</v>
@@ -5334,24 +5337,63 @@
         <v>322</v>
       </c>
       <c r="K119" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="120" spans="2:12">
       <c r="B120" t="s">
         <v>141</v>
       </c>
+      <c r="C120" t="s">
+        <v>358</v>
+      </c>
+      <c r="E120" t="s">
+        <v>425</v>
+      </c>
+      <c r="F120">
+        <v>1950</v>
+      </c>
+      <c r="G120">
+        <v>1950</v>
+      </c>
+      <c r="H120" t="s">
+        <v>375</v>
+      </c>
+      <c r="I120">
+        <v>1992</v>
+      </c>
       <c r="J120" t="s">
         <v>322</v>
       </c>
       <c r="K120" t="s">
-        <v>336</v>
+        <v>538</v>
       </c>
     </row>
     <row r="121" spans="2:12">
       <c r="B121" t="s">
         <v>142</v>
       </c>
+      <c r="C121" t="s">
+        <v>357</v>
+      </c>
+      <c r="D121" t="s">
+        <v>539</v>
+      </c>
+      <c r="E121" t="s">
+        <v>386</v>
+      </c>
+      <c r="F121">
+        <v>1928</v>
+      </c>
+      <c r="G121">
+        <v>1946</v>
+      </c>
+      <c r="H121" t="s">
+        <v>448</v>
+      </c>
+      <c r="I121">
+        <v>1963</v>
+      </c>
       <c r="J121" t="s">
         <v>322</v>
       </c>
@@ -5884,25 +5926,25 @@
     </row>
     <row r="196" spans="2:10">
       <c r="B196" t="s">
+        <v>380</v>
+      </c>
+      <c r="C196" t="s">
+        <v>357</v>
+      </c>
+      <c r="D196" t="s">
         <v>381</v>
-      </c>
-      <c r="C196" t="s">
-        <v>358</v>
-      </c>
-      <c r="D196" t="s">
-        <v>382</v>
       </c>
       <c r="G196">
         <v>1839</v>
       </c>
       <c r="H196" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I196">
         <v>1963</v>
       </c>
       <c r="J196" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="197" spans="2:10">
@@ -6657,7 +6699,7 @@
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -6665,7 +6707,7 @@
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J20">
         <v>38.299999999999997</v>
@@ -6673,7 +6715,7 @@
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -6681,12 +6723,12 @@
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -6697,12 +6739,12 @@
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H25">
         <v>0.2</v>
@@ -6710,7 +6752,7 @@
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J26">
         <v>29.7</v>
@@ -6718,7 +6760,7 @@
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -6726,12 +6768,12 @@
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -6742,12 +6784,12 @@
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H31">
         <v>5.0999999999999996</v>
@@ -6755,7 +6797,7 @@
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H32">
         <f>SUM(H4:H31)</f>

--- a/municipios .xlsx
+++ b/municipios .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="541">
   <si>
     <t>Acre</t>
   </si>
@@ -1639,6 +1639,9 @@
   </si>
   <si>
     <t>Harmonia</t>
+  </si>
+  <si>
+    <t> Lajeado Iraceminha</t>
   </si>
 </sst>
 </file>
@@ -2142,7 +2145,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I121" sqref="I121"/>
+      <selection pane="bottomLeft" activeCell="K122" sqref="K122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5404,6 +5407,27 @@
     <row r="122" spans="2:12">
       <c r="B122" t="s">
         <v>143</v>
+      </c>
+      <c r="C122" t="s">
+        <v>357</v>
+      </c>
+      <c r="D122" t="s">
+        <v>540</v>
+      </c>
+      <c r="E122" t="s">
+        <v>386</v>
+      </c>
+      <c r="F122">
+        <v>1947</v>
+      </c>
+      <c r="G122">
+        <v>1952</v>
+      </c>
+      <c r="H122" t="s">
+        <v>386</v>
+      </c>
+      <c r="I122">
+        <v>1988</v>
       </c>
       <c r="J122" t="s">
         <v>322</v>

--- a/municipios .xlsx
+++ b/municipios .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="578">
   <si>
     <t>Acre</t>
   </si>
@@ -1690,6 +1690,69 @@
   </si>
   <si>
     <t>arbore</t>
+  </si>
+  <si>
+    <t>Aquele que faz</t>
+  </si>
+  <si>
+    <t>Romere</t>
+  </si>
+  <si>
+    <t>Volta Grande</t>
+  </si>
+  <si>
+    <t> General da Guerra do Paraguai, Jacinto Machado Bitencourt</t>
+  </si>
+  <si>
+    <t>Campo Bom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sesmaria </t>
+  </si>
+  <si>
+    <t>Jaguar preto</t>
+  </si>
+  <si>
+    <t>Senhor do vale</t>
+  </si>
+  <si>
+    <t>Domínio Dona Francisca</t>
+  </si>
+  <si>
+    <t>Vila Jardim</t>
+  </si>
+  <si>
+    <t>Atributo local</t>
+  </si>
+  <si>
+    <t>Durante a viagem enfrentaram muita cerração e, quando avistaram o verde das matas, compararam o local a um grande jardim</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>encruzilhada ou cruzeiro</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Colônia Dona Francisca</t>
+  </si>
+  <si>
+    <t>em homenagem ao príncipe Francisco Fernando de Orléans, príncipe de Joinville</t>
+  </si>
+  <si>
+    <t>redemoinho de água</t>
+  </si>
+  <si>
+    <t> São Bento da Saudade</t>
+  </si>
+  <si>
+    <t> Núcleo Colonial de Barra Fria</t>
+  </si>
+  <si>
+    <t> Governador Jorge Lacerda</t>
   </si>
 </sst>
 </file>
@@ -2192,8 +2255,8 @@
   <dimension ref="A1:P295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E132" sqref="E132"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J141" sqref="J141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5817,47 +5880,245 @@
       <c r="B133" t="s">
         <v>154</v>
       </c>
+      <c r="C133" t="s">
+        <v>361</v>
+      </c>
+      <c r="D133" t="s">
+        <v>558</v>
+      </c>
+      <c r="E133" t="s">
+        <v>385</v>
+      </c>
+      <c r="F133">
+        <v>1919</v>
+      </c>
+      <c r="G133">
+        <v>1943</v>
+      </c>
+      <c r="H133" t="s">
+        <v>447</v>
+      </c>
+      <c r="I133">
+        <v>1963</v>
+      </c>
+      <c r="J133" t="s">
+        <v>322</v>
+      </c>
+      <c r="K133" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="134" spans="2:12">
       <c r="B134" t="s">
         <v>155</v>
       </c>
+      <c r="C134" t="s">
+        <v>356</v>
+      </c>
+      <c r="D134" t="s">
+        <v>559</v>
+      </c>
+      <c r="E134" t="s">
+        <v>385</v>
+      </c>
+      <c r="F134">
+        <v>1913</v>
+      </c>
+      <c r="G134">
+        <v>1943</v>
+      </c>
+      <c r="H134" t="s">
+        <v>447</v>
+      </c>
+      <c r="I134">
+        <v>1958</v>
+      </c>
       <c r="J134" t="s">
         <v>316</v>
+      </c>
+      <c r="K134" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="135" spans="2:12">
       <c r="B135" t="s">
         <v>156</v>
       </c>
+      <c r="C135" t="s">
+        <v>356</v>
+      </c>
+      <c r="D135" t="s">
+        <v>561</v>
+      </c>
+      <c r="E135" t="s">
+        <v>562</v>
+      </c>
+      <c r="F135">
+        <v>1867</v>
+      </c>
+      <c r="G135">
+        <v>1880</v>
+      </c>
+      <c r="H135" t="s">
+        <v>389</v>
+      </c>
+      <c r="I135">
+        <v>1930</v>
+      </c>
+      <c r="J135" t="s">
+        <v>322</v>
+      </c>
+      <c r="K135" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="136" spans="2:12">
       <c r="B136" t="s">
         <v>157</v>
       </c>
+      <c r="C136" t="s">
+        <v>356</v>
+      </c>
+      <c r="D136" t="s">
+        <v>565</v>
+      </c>
+      <c r="E136" t="s">
+        <v>385</v>
+      </c>
+      <c r="F136">
+        <v>1876</v>
+      </c>
+      <c r="G136">
+        <v>1895</v>
+      </c>
+      <c r="H136" t="s">
+        <v>447</v>
+      </c>
+      <c r="I136">
+        <v>1934</v>
+      </c>
+      <c r="J136" t="s">
+        <v>322</v>
+      </c>
+      <c r="K136" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="137" spans="2:12">
       <c r="B137" t="s">
         <v>158</v>
       </c>
+      <c r="C137" t="s">
+        <v>356</v>
+      </c>
+      <c r="D137" t="s">
+        <v>566</v>
+      </c>
+      <c r="E137" t="s">
+        <v>385</v>
+      </c>
+      <c r="F137">
+        <v>1948</v>
+      </c>
+      <c r="G137">
+        <v>1965</v>
+      </c>
+      <c r="H137" t="s">
+        <v>447</v>
+      </c>
+      <c r="I137">
+        <v>1992</v>
+      </c>
       <c r="J137" t="s">
-        <v>319</v>
+        <v>567</v>
+      </c>
+      <c r="K137" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="138" spans="2:12">
       <c r="B138" t="s">
         <v>159</v>
       </c>
+      <c r="C138" t="s">
+        <v>356</v>
+      </c>
+      <c r="D138" t="s">
+        <v>569</v>
+      </c>
+      <c r="E138" t="s">
+        <v>571</v>
+      </c>
+      <c r="F138">
+        <v>1917</v>
+      </c>
+      <c r="G138">
+        <v>1943</v>
+      </c>
+      <c r="H138" t="s">
+        <v>354</v>
+      </c>
+      <c r="I138">
+        <v>1943</v>
+      </c>
+      <c r="J138" t="s">
+        <v>322</v>
+      </c>
+      <c r="K138" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="139" spans="2:12">
       <c r="B139" t="s">
         <v>160</v>
       </c>
+      <c r="C139" t="s">
+        <v>356</v>
+      </c>
+      <c r="D139" t="s">
+        <v>572</v>
+      </c>
+      <c r="E139" t="s">
+        <v>385</v>
+      </c>
+      <c r="F139">
+        <v>1851</v>
+      </c>
+      <c r="G139">
+        <v>1952</v>
+      </c>
+      <c r="H139" t="s">
+        <v>385</v>
+      </c>
+      <c r="I139">
+        <v>1886</v>
+      </c>
+      <c r="J139" t="s">
+        <v>316</v>
+      </c>
+      <c r="K139" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="140" spans="2:12">
       <c r="B140" t="s">
         <v>161</v>
       </c>
+      <c r="E140" t="s">
+        <v>385</v>
+      </c>
+      <c r="F140">
+        <v>1920</v>
+      </c>
+      <c r="G140">
+        <v>1934</v>
+      </c>
+      <c r="H140" t="s">
+        <v>447</v>
+      </c>
+      <c r="I140">
+        <v>1989</v>
+      </c>
       <c r="J140" t="s">
         <v>316</v>
       </c>
@@ -5866,13 +6127,58 @@
       <c r="B141" t="s">
         <v>162</v>
       </c>
+      <c r="C141" t="s">
+        <v>356</v>
+      </c>
+      <c r="D141" t="s">
+        <v>575</v>
+      </c>
+      <c r="E141" t="s">
+        <v>418</v>
+      </c>
+      <c r="G141">
+        <v>1953</v>
+      </c>
+      <c r="H141" t="s">
+        <v>385</v>
+      </c>
+      <c r="I141">
+        <v>1995</v>
+      </c>
+      <c r="J141" t="s">
+        <v>322</v>
+      </c>
+      <c r="K141" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="142" spans="2:12">
       <c r="B142" t="s">
         <v>163</v>
       </c>
+      <c r="C142" t="s">
+        <v>356</v>
+      </c>
+      <c r="D142" t="s">
+        <v>576</v>
+      </c>
+      <c r="E142" t="s">
+        <v>385</v>
+      </c>
+      <c r="G142">
+        <v>1957</v>
+      </c>
+      <c r="H142" t="s">
+        <v>447</v>
+      </c>
+      <c r="I142">
+        <v>1963</v>
+      </c>
       <c r="J142" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="K142" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="143" spans="2:12">

--- a/municipios .xlsx
+++ b/municipios .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="588">
   <si>
     <t>Acre</t>
   </si>
@@ -1753,6 +1753,36 @@
   </si>
   <si>
     <t> Governador Jorge Lacerda</t>
+  </si>
+  <si>
+    <t>Nossa Senhora dos Prazeres dos Campos das Lajens</t>
+  </si>
+  <si>
+    <t>Atributo topografico local</t>
+  </si>
+  <si>
+    <t>Campos de lages</t>
+  </si>
+  <si>
+    <t>Santo Antônio dos Anjos de Laguna</t>
+  </si>
+  <si>
+    <t>lages no rio</t>
+  </si>
+  <si>
+    <t>pesqueiro</t>
+  </si>
+  <si>
+    <t>é oriundo do sobrenome do senhor Manoel Laurentino de Andrade, um dos primeiros desbravadores da nossa terra, indivíduo que tinha a habilidade em cavar poços, sendo muito procurado com a identificação, “vamos  lá no Laurentino”</t>
+  </si>
+  <si>
+    <t> ao então Ministro da Indústria, Viação e Obras Públicas, Lauro Severiano Müller</t>
+  </si>
+  <si>
+    <t>mina</t>
+  </si>
+  <si>
+    <t>Bom Retiro, Arraial da Mina e Mina dos Ingleses</t>
   </si>
 </sst>
 </file>
@@ -2255,8 +2285,8 @@
   <dimension ref="A1:P295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J141" sqref="J141"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6185,34 +6215,154 @@
       <c r="B143" t="s">
         <v>164</v>
       </c>
+      <c r="C143" t="s">
+        <v>356</v>
+      </c>
+      <c r="D143" t="s">
+        <v>578</v>
+      </c>
+      <c r="E143" t="s">
+        <v>478</v>
+      </c>
+      <c r="F143">
+        <v>1766</v>
+      </c>
+      <c r="G143">
+        <v>1960</v>
+      </c>
+      <c r="H143" t="s">
+        <v>354</v>
+      </c>
+      <c r="I143">
+        <v>1771</v>
+      </c>
+      <c r="J143" t="s">
+        <v>579</v>
+      </c>
+      <c r="K143" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="144" spans="2:12">
       <c r="B144" t="s">
         <v>165</v>
       </c>
+      <c r="C144" t="s">
+        <v>356</v>
+      </c>
+      <c r="D144" t="s">
+        <v>581</v>
+      </c>
+      <c r="E144" t="s">
+        <v>424</v>
+      </c>
+      <c r="F144">
+        <v>1676</v>
+      </c>
+      <c r="G144">
+        <v>1847</v>
+      </c>
+      <c r="H144" t="s">
+        <v>354</v>
+      </c>
+      <c r="I144">
+        <v>1847</v>
+      </c>
       <c r="J144" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11">
       <c r="B145" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="146" spans="2:10">
+      <c r="C145" t="s">
+        <v>356</v>
+      </c>
+      <c r="D145" t="s">
+        <v>583</v>
+      </c>
+      <c r="E145" t="s">
+        <v>418</v>
+      </c>
+      <c r="G145">
+        <v>1918</v>
+      </c>
+      <c r="H145" t="s">
+        <v>385</v>
+      </c>
+      <c r="I145">
+        <v>1991</v>
+      </c>
+      <c r="J145" t="s">
+        <v>579</v>
+      </c>
+      <c r="K145" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11">
       <c r="B146" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="147" spans="2:10">
+      <c r="C146" t="s">
+        <v>357</v>
+      </c>
+      <c r="E146" t="s">
+        <v>385</v>
+      </c>
+      <c r="F146">
+        <v>1908</v>
+      </c>
+      <c r="G146">
+        <v>1908</v>
+      </c>
+      <c r="H146" t="s">
+        <v>385</v>
+      </c>
+      <c r="I146">
+        <v>1962</v>
+      </c>
+      <c r="J146" t="s">
+        <v>316</v>
+      </c>
+      <c r="K146" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11">
       <c r="B147" t="s">
         <v>168</v>
       </c>
+      <c r="C147" t="s">
+        <v>356</v>
+      </c>
+      <c r="D147" t="s">
+        <v>587</v>
+      </c>
+      <c r="E147" t="s">
+        <v>586</v>
+      </c>
+      <c r="F147">
+        <v>1885</v>
+      </c>
+      <c r="G147">
+        <v>1905</v>
+      </c>
+      <c r="H147" t="s">
+        <v>586</v>
+      </c>
+      <c r="I147">
+        <v>1962</v>
+      </c>
       <c r="J147" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="148" spans="2:10">
+      <c r="K147" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11">
       <c r="B148" t="s">
         <v>169</v>
       </c>
@@ -6220,7 +6370,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:11">
       <c r="B149" t="s">
         <v>170</v>
       </c>
@@ -6228,17 +6378,17 @@
         <v>316</v>
       </c>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:11">
       <c r="B150" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:11">
       <c r="B151" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:11">
       <c r="B152" t="s">
         <v>173</v>
       </c>
@@ -6246,22 +6396,22 @@
         <v>316</v>
       </c>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:11">
       <c r="B153" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:11">
       <c r="B154" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:11">
       <c r="B155" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:11">
       <c r="B156" t="s">
         <v>177</v>
       </c>
@@ -6269,7 +6419,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:11">
       <c r="B157" t="s">
         <v>178</v>
       </c>
@@ -6277,17 +6427,17 @@
         <v>316</v>
       </c>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:11">
       <c r="B158" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:11">
       <c r="B159" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:11">
       <c r="B160" t="s">
         <v>181</v>
       </c>

--- a/municipios .xlsx
+++ b/municipios .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="557">
   <si>
     <t>Acre</t>
   </si>
@@ -996,9 +996,6 @@
     <t>pedra quebrada</t>
   </si>
   <si>
-    <t>ponta da pedra</t>
-  </si>
-  <si>
     <t>cachoeira bonita</t>
   </si>
   <si>
@@ -1642,6 +1639,57 @@
   </si>
   <si>
     <t> Lajeado Iraceminha</t>
+  </si>
+  <si>
+    <t>siglo xix</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Colônia do Irani</t>
+  </si>
+  <si>
+    <t>Barra Grande</t>
+  </si>
+  <si>
+    <t>Colonia</t>
+  </si>
+  <si>
+    <t>Valões</t>
+  </si>
+  <si>
+    <t> ex-governador do estado Irineu Bornhausen.</t>
+  </si>
+  <si>
+    <t>Colônia Federal Lucena</t>
+  </si>
+  <si>
+    <t>pedra (laje)molhada</t>
+  </si>
+  <si>
+    <t>São Tomás de Vilanova</t>
+  </si>
+  <si>
+    <t>Vila de Santo Antônio de Lisboa ou Tapera</t>
+  </si>
+  <si>
+    <t>arraial</t>
+  </si>
+  <si>
+    <t>Colônia de Porto Novo</t>
+  </si>
+  <si>
+    <t>pedra que surge</t>
+  </si>
+  <si>
+    <t> Colônia da Barra do Saí (ao norte da localidade); Colônia de Itapema (ao centro); Colônia do Pontal (confrontando com São Francisco do Sul)</t>
+  </si>
+  <si>
+    <t>Barra do Rio Guabiroba e Barra do Rio Perimbó</t>
+  </si>
+  <si>
+    <t>arbore</t>
   </si>
 </sst>
 </file>
@@ -2144,8 +2192,8 @@
   <dimension ref="A1:P295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K122" sqref="K122"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2155,22 +2203,22 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1" t="s">
         <v>420</v>
       </c>
-      <c r="F1" t="s">
-        <v>421</v>
-      </c>
       <c r="G1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I1" t="s">
         <v>370</v>
-      </c>
-      <c r="H1" t="s">
-        <v>382</v>
-      </c>
-      <c r="I1" t="s">
-        <v>371</v>
       </c>
       <c r="J1" t="s">
         <v>317</v>
@@ -2184,13 +2232,13 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G2">
         <v>1934</v>
       </c>
       <c r="H2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J2" t="s">
         <v>316</v>
@@ -2199,7 +2247,7 @@
         <v>316</v>
       </c>
       <c r="P2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2210,22 +2258,22 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G3">
         <v>1922</v>
       </c>
       <c r="H3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J3" t="s">
         <v>316</v>
       </c>
       <c r="O3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2236,19 +2284,19 @@
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G4">
         <v>1962</v>
       </c>
       <c r="H4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2259,16 +2307,16 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G5">
         <v>1960</v>
       </c>
       <c r="H5" t="s">
+        <v>352</v>
+      </c>
+      <c r="J5" t="s">
         <v>353</v>
-      </c>
-      <c r="J5" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2279,16 +2327,16 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G6">
         <v>1943</v>
       </c>
       <c r="H6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2299,16 +2347,16 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G7">
         <v>1955</v>
       </c>
       <c r="H7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2319,16 +2367,16 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G8">
         <v>1978</v>
       </c>
       <c r="H8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2339,16 +2387,16 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G9">
         <v>1961</v>
       </c>
       <c r="H9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2359,13 +2407,13 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G10">
         <v>1962</v>
       </c>
       <c r="H10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J10" t="s">
         <v>316</v>
@@ -2379,16 +2427,16 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G11">
         <v>1992</v>
       </c>
       <c r="H11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2399,13 +2447,13 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G12">
         <v>1950</v>
       </c>
       <c r="H12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J12" t="s">
         <v>316</v>
@@ -2419,13 +2467,13 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G13">
         <v>1891</v>
       </c>
       <c r="H13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J13" t="s">
         <v>316</v>
@@ -2439,13 +2487,13 @@
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G14">
         <v>1929</v>
       </c>
       <c r="H14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J14" t="s">
         <v>316</v>
@@ -2459,13 +2507,13 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G15">
         <v>1906</v>
       </c>
       <c r="H15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J15" t="s">
         <v>316</v>
@@ -2479,13 +2527,13 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G16">
         <v>1963</v>
       </c>
       <c r="H16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J16" t="s">
         <v>316</v>
@@ -2499,19 +2547,19 @@
         <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G17">
         <v>1943</v>
       </c>
       <c r="H17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J17" t="s">
         <v>322</v>
       </c>
       <c r="K17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2522,19 +2570,19 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G18">
         <v>1943</v>
       </c>
       <c r="H18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J18" t="s">
         <v>322</v>
       </c>
       <c r="K18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2545,19 +2593,19 @@
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G19">
         <v>1943</v>
       </c>
       <c r="H19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J19" t="s">
+        <v>365</v>
+      </c>
+      <c r="K19" t="s">
         <v>366</v>
-      </c>
-      <c r="K19" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2568,19 +2616,19 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G20">
         <v>1880</v>
       </c>
       <c r="H20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J20" t="s">
         <v>322</v>
       </c>
       <c r="K20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2591,19 +2639,19 @@
         <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G21">
         <v>1934</v>
       </c>
       <c r="H21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I21">
         <v>1959</v>
       </c>
       <c r="J21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2614,22 +2662,22 @@
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G22">
         <v>1943</v>
       </c>
       <c r="H22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I22">
         <v>1961</v>
       </c>
       <c r="J22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2640,19 +2688,19 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G23">
         <v>1950</v>
       </c>
       <c r="H23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I23">
         <v>1992</v>
       </c>
       <c r="J23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2663,19 +2711,19 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G24">
         <v>1919</v>
       </c>
       <c r="H24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I24">
         <v>1963</v>
       </c>
       <c r="J24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2686,19 +2734,19 @@
         <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G25">
         <v>1957</v>
       </c>
       <c r="H25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I25">
         <v>1964</v>
       </c>
       <c r="J25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2709,19 +2757,19 @@
         <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G26">
         <v>1943</v>
       </c>
       <c r="H26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I26">
         <v>1964</v>
       </c>
       <c r="J26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2732,19 +2780,19 @@
         <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G27">
         <v>1988</v>
       </c>
       <c r="H27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I27">
         <v>1995</v>
       </c>
       <c r="J27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2755,19 +2803,19 @@
         <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G28">
         <v>1960</v>
       </c>
       <c r="H28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I28">
         <v>1992</v>
       </c>
       <c r="J28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2778,13 +2826,13 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G29">
         <v>1954</v>
       </c>
       <c r="H29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I29">
         <v>1964</v>
@@ -2793,7 +2841,7 @@
         <v>322</v>
       </c>
       <c r="K29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2804,42 +2852,42 @@
         <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G30">
         <v>1990</v>
       </c>
       <c r="H30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I30">
         <v>1995</v>
       </c>
       <c r="J30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="B31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G31">
         <v>1858</v>
       </c>
       <c r="H31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I31">
         <v>2013</v>
       </c>
       <c r="J31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2847,22 +2895,22 @@
         <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G32">
         <v>1944</v>
       </c>
       <c r="H32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I32">
         <v>1995</v>
       </c>
       <c r="J32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="2:11">
@@ -2870,19 +2918,19 @@
         <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G33">
         <v>1951</v>
       </c>
       <c r="H33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I33">
         <v>1995</v>
       </c>
       <c r="J33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="2:11">
@@ -2890,22 +2938,22 @@
         <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G34">
         <v>1861</v>
       </c>
       <c r="H34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I34">
         <v>1961</v>
       </c>
       <c r="J34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="2:11">
@@ -2913,19 +2961,19 @@
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G35">
         <v>1957</v>
       </c>
       <c r="H35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I35">
         <v>1994</v>
       </c>
       <c r="J35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="2:11">
@@ -2933,22 +2981,22 @@
         <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G36">
         <v>1964</v>
       </c>
       <c r="H36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I36">
         <v>1992</v>
       </c>
       <c r="J36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="2:11">
@@ -2956,16 +3004,16 @@
         <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G37">
         <v>1880</v>
       </c>
       <c r="H37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I37">
         <v>1961</v>
@@ -2979,13 +3027,13 @@
         <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G38">
         <v>1882</v>
       </c>
       <c r="H38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I38">
         <v>1894</v>
@@ -2994,7 +3042,7 @@
         <v>322</v>
       </c>
       <c r="K38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="2:11">
@@ -3005,7 +3053,7 @@
         <v>1873</v>
       </c>
       <c r="H39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I39">
         <v>1880</v>
@@ -3019,16 +3067,16 @@
         <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G40">
         <v>1929</v>
       </c>
       <c r="H40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I40">
         <v>1994</v>
@@ -3037,7 +3085,7 @@
         <v>322</v>
       </c>
       <c r="K40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -3045,22 +3093,22 @@
         <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G41">
         <v>1949</v>
       </c>
       <c r="H41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I41">
         <v>1967</v>
       </c>
       <c r="J41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="2:11">
@@ -3068,22 +3116,22 @@
         <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G42">
         <v>1957</v>
       </c>
       <c r="H42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I42">
         <v>1997</v>
       </c>
       <c r="J42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -3091,22 +3139,22 @@
         <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G43">
         <v>1977</v>
       </c>
       <c r="H43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I43">
         <v>1993</v>
       </c>
       <c r="J43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="2:11">
@@ -3114,22 +3162,22 @@
         <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D44" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G44">
         <v>1920</v>
       </c>
       <c r="H44" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I44">
         <v>1922</v>
       </c>
       <c r="J44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -3137,19 +3185,19 @@
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G45">
         <v>1967</v>
       </c>
       <c r="H45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I45">
         <v>1992</v>
       </c>
       <c r="J45" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="46" spans="2:11">
@@ -3157,16 +3205,16 @@
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G46">
         <v>1943</v>
       </c>
       <c r="H46" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I46">
         <v>1962</v>
@@ -3175,7 +3223,7 @@
         <v>322</v>
       </c>
       <c r="K46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="2:11">
@@ -3183,22 +3231,22 @@
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G47">
         <v>1892</v>
       </c>
       <c r="H47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I47">
         <v>1955</v>
       </c>
       <c r="J47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K47" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="2:11">
@@ -3206,22 +3254,22 @@
         <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G48">
         <v>1957</v>
       </c>
       <c r="H48" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I48">
         <v>1991</v>
       </c>
       <c r="J48" t="s">
+        <v>406</v>
+      </c>
+      <c r="K48" t="s">
         <v>407</v>
-      </c>
-      <c r="K48" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="49" spans="2:11">
@@ -3229,13 +3277,13 @@
         <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G49">
         <v>1995</v>
       </c>
       <c r="H49" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I49">
         <v>1995</v>
@@ -3249,16 +3297,16 @@
         <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D50" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G50">
         <v>1890</v>
       </c>
       <c r="H50" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I50">
         <v>1881</v>
@@ -3272,22 +3320,22 @@
         <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G51">
         <v>1881</v>
       </c>
       <c r="H51" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I51">
         <v>1934</v>
       </c>
       <c r="J51" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="2:11">
@@ -3295,7 +3343,7 @@
         <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D52" t="s">
         <v>263</v>
@@ -3304,7 +3352,7 @@
         <v>1955</v>
       </c>
       <c r="H52" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I52">
         <v>1965</v>
@@ -3313,7 +3361,7 @@
         <v>322</v>
       </c>
       <c r="K52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="2:11">
@@ -3321,16 +3369,16 @@
         <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D53" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G53">
         <v>1909</v>
       </c>
       <c r="H53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I53">
         <v>1992</v>
@@ -3339,7 +3387,7 @@
         <v>316</v>
       </c>
       <c r="K53" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="2:11">
@@ -3347,16 +3395,16 @@
         <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G54">
         <v>1849</v>
       </c>
       <c r="H54" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I54">
         <v>1884</v>
@@ -3365,7 +3413,7 @@
         <v>322</v>
       </c>
       <c r="K54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="2:11">
@@ -3373,19 +3421,19 @@
         <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G55">
         <v>1827</v>
       </c>
       <c r="H55" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I55">
         <v>1897</v>
       </c>
       <c r="J55" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="2:11">
@@ -3393,13 +3441,13 @@
         <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D56" t="s">
+        <v>417</v>
+      </c>
+      <c r="E56" t="s">
         <v>418</v>
-      </c>
-      <c r="E56" t="s">
-        <v>419</v>
       </c>
       <c r="F56">
         <v>1856</v>
@@ -3408,13 +3456,13 @@
         <v>1949</v>
       </c>
       <c r="H56" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I56">
         <v>1961</v>
       </c>
       <c r="J56" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="2:11">
@@ -3422,10 +3470,10 @@
         <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E57" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F57">
         <v>1630</v>
@@ -3434,16 +3482,16 @@
         <v>1917</v>
       </c>
       <c r="H57" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I57">
         <v>1958</v>
       </c>
       <c r="J57" t="s">
+        <v>421</v>
+      </c>
+      <c r="K57" t="s">
         <v>422</v>
-      </c>
-      <c r="K57" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="58" spans="2:11">
@@ -3451,13 +3499,13 @@
         <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D58" t="s">
+        <v>423</v>
+      </c>
+      <c r="E58" t="s">
         <v>424</v>
-      </c>
-      <c r="E58" t="s">
-        <v>425</v>
       </c>
       <c r="F58">
         <v>1839</v>
@@ -3466,13 +3514,13 @@
         <v>1854</v>
       </c>
       <c r="H58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I58">
         <v>1881</v>
       </c>
       <c r="J58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="2:11">
@@ -3480,10 +3528,10 @@
         <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E59" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F59">
         <v>1875</v>
@@ -3492,16 +3540,16 @@
         <v>1934</v>
       </c>
       <c r="H59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I59">
         <v>1962</v>
       </c>
       <c r="J59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K59" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="2:11">
@@ -3509,13 +3557,13 @@
         <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D60" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E60" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F60">
         <v>1888</v>
@@ -3524,16 +3572,16 @@
         <v>1934</v>
       </c>
       <c r="H60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I60">
         <v>1911</v>
       </c>
       <c r="J60" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K60" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="2:11">
@@ -3541,13 +3589,13 @@
         <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D61" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E61" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F61">
         <v>1727</v>
@@ -3556,16 +3604,16 @@
         <v>1899</v>
       </c>
       <c r="H61" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I61">
         <v>1994</v>
       </c>
       <c r="J61" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K61" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="2:11">
@@ -3573,13 +3621,13 @@
         <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D62" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E62" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F62">
         <v>1906</v>
@@ -3588,16 +3636,16 @@
         <v>1943</v>
       </c>
       <c r="H62" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I62">
         <v>1948</v>
       </c>
       <c r="J62" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K62" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63" spans="2:11">
@@ -3605,19 +3653,19 @@
         <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D63" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E63" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G63">
         <v>1989</v>
       </c>
       <c r="H63" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I63">
         <v>1992</v>
@@ -3626,7 +3674,7 @@
         <v>322</v>
       </c>
       <c r="K63" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="2:11">
@@ -3634,19 +3682,19 @@
         <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G64">
         <v>1917</v>
       </c>
       <c r="H64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I64">
         <v>1963</v>
@@ -3655,7 +3703,7 @@
         <v>322</v>
       </c>
       <c r="K64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="2:11">
@@ -3663,19 +3711,19 @@
         <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E65" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G65">
         <v>1933</v>
       </c>
       <c r="H65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I65">
         <v>1962</v>
@@ -3684,7 +3732,7 @@
         <v>322</v>
       </c>
       <c r="K65" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66" spans="2:11">
@@ -3692,13 +3740,13 @@
         <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D66" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E66" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F66">
         <v>1934</v>
@@ -3707,7 +3755,7 @@
         <v>1957</v>
       </c>
       <c r="H66" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I66">
         <v>1989</v>
@@ -3716,7 +3764,7 @@
         <v>316</v>
       </c>
       <c r="K66" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="2:11">
@@ -3724,13 +3772,13 @@
         <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D67" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F67">
         <v>1880</v>
@@ -3739,16 +3787,16 @@
         <v>1916</v>
       </c>
       <c r="H67" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I67">
         <v>1991</v>
       </c>
       <c r="J67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K67" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="2:11">
@@ -3756,10 +3804,10 @@
         <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F68">
         <v>1922</v>
@@ -3768,16 +3816,16 @@
         <v>1986</v>
       </c>
       <c r="H68" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I68">
         <v>1997</v>
       </c>
       <c r="J68" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K68" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="2:11">
@@ -3785,10 +3833,10 @@
         <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E69" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F69">
         <v>1917</v>
@@ -3797,16 +3845,16 @@
         <v>1917</v>
       </c>
       <c r="H69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I69">
         <v>1917</v>
       </c>
       <c r="J69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K69" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="2:11">
@@ -3814,13 +3862,13 @@
         <v>91</v>
       </c>
       <c r="C70" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D70" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E70" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F70">
         <v>1885</v>
@@ -3829,16 +3877,16 @@
         <v>1991</v>
       </c>
       <c r="H70" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I70">
         <v>1991</v>
       </c>
       <c r="J70" t="s">
+        <v>461</v>
+      </c>
+      <c r="K70" t="s">
         <v>462</v>
-      </c>
-      <c r="K70" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -3846,13 +3894,13 @@
         <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D71" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E71" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F71">
         <v>1925</v>
@@ -3861,7 +3909,7 @@
         <v>1925</v>
       </c>
       <c r="H71" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I71">
         <v>1934</v>
@@ -3875,10 +3923,10 @@
         <v>93</v>
       </c>
       <c r="D72" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F72">
         <v>1921</v>
@@ -3887,13 +3935,13 @@
         <v>192</v>
       </c>
       <c r="H72" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I72">
         <v>1992</v>
       </c>
       <c r="J72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="2:11">
@@ -3901,10 +3949,10 @@
         <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E73" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F73">
         <v>1929</v>
@@ -3913,7 +3961,7 @@
         <v>1950</v>
       </c>
       <c r="H73" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I73">
         <v>1961</v>
@@ -3922,7 +3970,7 @@
         <v>316</v>
       </c>
       <c r="K73" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="2:11">
@@ -3930,19 +3978,19 @@
         <v>95</v>
       </c>
       <c r="C74" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D74" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E74" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G74">
         <v>1958</v>
       </c>
       <c r="H74" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I74">
         <v>1992</v>
@@ -3951,7 +3999,7 @@
         <v>316</v>
       </c>
       <c r="K74" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="75" spans="2:11">
@@ -3959,13 +4007,13 @@
         <v>96</v>
       </c>
       <c r="C75" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D75" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E75" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F75">
         <v>1771</v>
@@ -3974,7 +4022,7 @@
         <v>1920</v>
       </c>
       <c r="H75" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I75">
         <v>1982</v>
@@ -3983,7 +4031,7 @@
         <v>316</v>
       </c>
       <c r="K75" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="76" spans="2:11">
@@ -3991,13 +4039,13 @@
         <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D76" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E76" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F76">
         <v>1897</v>
@@ -4006,7 +4054,7 @@
         <v>1943</v>
       </c>
       <c r="H76" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I76">
         <v>1958</v>
@@ -4015,7 +4063,7 @@
         <v>322</v>
       </c>
       <c r="K76" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="77" spans="2:11">
@@ -4023,13 +4071,13 @@
         <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D77" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E77" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F77">
         <v>1880</v>
@@ -4038,16 +4086,16 @@
         <v>1948</v>
       </c>
       <c r="H77" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I77">
         <v>1925</v>
       </c>
       <c r="J77" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K77" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="78" spans="2:11">
@@ -4055,10 +4103,10 @@
         <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E78" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F78">
         <v>1931</v>
@@ -4067,7 +4115,7 @@
         <v>1931</v>
       </c>
       <c r="H78" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I78">
         <v>1958</v>
@@ -4076,7 +4124,7 @@
         <v>322</v>
       </c>
       <c r="K78" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79" spans="2:11">
@@ -4084,13 +4132,13 @@
         <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D79" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E79" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F79">
         <v>1934</v>
@@ -4099,7 +4147,7 @@
         <v>1944</v>
       </c>
       <c r="H79" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I79">
         <v>1995</v>
@@ -4108,7 +4156,7 @@
         <v>322</v>
       </c>
       <c r="K79" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80" spans="2:11">
@@ -4116,13 +4164,13 @@
         <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D80" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E80" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F80">
         <v>1679</v>
@@ -4131,16 +4179,16 @@
         <v>1864</v>
       </c>
       <c r="H80" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I80">
         <v>1869</v>
       </c>
       <c r="J80" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K80" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" spans="2:12">
@@ -4148,10 +4196,10 @@
         <v>102</v>
       </c>
       <c r="C81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E81" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F81">
         <v>1934</v>
@@ -4160,16 +4208,16 @@
         <v>1934</v>
       </c>
       <c r="H81" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I81">
         <v>1956</v>
       </c>
       <c r="J81" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K81" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="2:12">
@@ -4177,13 +4225,13 @@
         <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D82" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E82" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F82">
         <v>1917</v>
@@ -4192,7 +4240,7 @@
         <v>1938</v>
       </c>
       <c r="H82" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I82">
         <v>1954</v>
@@ -4201,7 +4249,7 @@
         <v>316</v>
       </c>
       <c r="K82" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" spans="2:12">
@@ -4209,7 +4257,7 @@
         <v>104</v>
       </c>
       <c r="E83" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F83">
         <v>1919</v>
@@ -4218,7 +4266,7 @@
         <v>1962</v>
       </c>
       <c r="H83" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I83">
         <v>1962</v>
@@ -4227,7 +4275,7 @@
         <v>316</v>
       </c>
       <c r="K83" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84" spans="2:12">
@@ -4235,13 +4283,13 @@
         <v>105</v>
       </c>
       <c r="E84" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G84">
         <v>1948</v>
       </c>
       <c r="H84" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I84">
         <v>1988</v>
@@ -4250,7 +4298,7 @@
         <v>316</v>
       </c>
       <c r="K84" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="85" spans="2:12">
@@ -4258,13 +4306,13 @@
         <v>106</v>
       </c>
       <c r="C85" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D85" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E85" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F85">
         <v>1930</v>
@@ -4273,16 +4321,16 @@
         <v>1961</v>
       </c>
       <c r="H85" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I85">
         <v>1995</v>
       </c>
       <c r="J85" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K85" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="86" spans="2:12">
@@ -4290,25 +4338,25 @@
         <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E86" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G86">
         <v>1920</v>
       </c>
       <c r="H86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I86">
         <v>1993</v>
       </c>
       <c r="J86" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K86" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87" spans="2:12">
@@ -4316,13 +4364,13 @@
         <v>108</v>
       </c>
       <c r="C87" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D87" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E87" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F87">
         <v>1870</v>
@@ -4331,16 +4379,16 @@
         <v>1943</v>
       </c>
       <c r="H87" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I87">
         <v>1963</v>
       </c>
       <c r="J87" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K87" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88" spans="2:12">
@@ -4348,13 +4396,13 @@
         <v>109</v>
       </c>
       <c r="C88" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D88" t="s">
+        <v>491</v>
+      </c>
+      <c r="E88" t="s">
         <v>492</v>
-      </c>
-      <c r="E88" t="s">
-        <v>493</v>
       </c>
       <c r="F88">
         <v>1910</v>
@@ -4363,16 +4411,16 @@
         <v>1919</v>
       </c>
       <c r="H88" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I88">
         <v>1958</v>
       </c>
       <c r="J88" t="s">
+        <v>493</v>
+      </c>
+      <c r="K88" t="s">
         <v>494</v>
-      </c>
-      <c r="K88" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="89" spans="2:12">
@@ -4380,10 +4428,10 @@
         <v>110</v>
       </c>
       <c r="C89" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E89" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F89">
         <v>1952</v>
@@ -4392,16 +4440,16 @@
         <v>1952</v>
       </c>
       <c r="H89" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I89">
         <v>1995</v>
       </c>
       <c r="J89" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K89" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="90" spans="2:12">
@@ -4409,13 +4457,13 @@
         <v>111</v>
       </c>
       <c r="C90" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D90" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E90" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F90">
         <v>1675</v>
@@ -4424,7 +4472,7 @@
         <v>1894</v>
       </c>
       <c r="H90" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I90">
         <v>1726</v>
@@ -4433,7 +4481,7 @@
         <v>316</v>
       </c>
       <c r="K90" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="91" spans="2:12">
@@ -4441,13 +4489,13 @@
         <v>112</v>
       </c>
       <c r="C91" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D91" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E91" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F91">
         <v>1953</v>
@@ -4456,16 +4504,16 @@
         <v>1985</v>
       </c>
       <c r="H91" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I91">
         <v>1992</v>
       </c>
       <c r="J91" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K91" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="92" spans="2:12">
@@ -4473,10 +4521,10 @@
         <v>113</v>
       </c>
       <c r="C92" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E92" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F92">
         <v>1912</v>
@@ -4485,16 +4533,16 @@
         <v>1912</v>
       </c>
       <c r="H92" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I92">
         <v>1989</v>
       </c>
       <c r="J92" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K92" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="2:12">
@@ -4502,13 +4550,13 @@
         <v>114</v>
       </c>
       <c r="C93" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D93" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E93" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F93">
         <v>1937</v>
@@ -4517,16 +4565,16 @@
         <v>1961</v>
       </c>
       <c r="H93" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I93">
         <v>1961</v>
       </c>
       <c r="J93" t="s">
+        <v>501</v>
+      </c>
+      <c r="K93" t="s">
         <v>502</v>
-      </c>
-      <c r="K93" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="94" spans="2:12">
@@ -4534,10 +4582,10 @@
         <v>115</v>
       </c>
       <c r="C94" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E94" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F94">
         <v>1949</v>
@@ -4546,7 +4594,7 @@
         <v>1949</v>
       </c>
       <c r="H94" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I94">
         <v>1995</v>
@@ -4555,7 +4603,7 @@
         <v>316</v>
       </c>
       <c r="K94" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="95" spans="2:12">
@@ -4563,13 +4611,13 @@
         <v>116</v>
       </c>
       <c r="C95" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D95" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E95" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F95">
         <v>1940</v>
@@ -4578,16 +4626,16 @@
         <v>1959</v>
       </c>
       <c r="H95" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I95">
         <v>1962</v>
       </c>
       <c r="J95" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K95" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="96" spans="2:12">
@@ -4595,10 +4643,10 @@
         <v>117</v>
       </c>
       <c r="C96" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E96" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F96">
         <v>1666</v>
@@ -4607,7 +4655,7 @@
         <v>1666</v>
       </c>
       <c r="H96" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I96">
         <v>1961</v>
@@ -4616,10 +4664,10 @@
         <v>322</v>
       </c>
       <c r="K96" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L96" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="97" spans="2:12">
@@ -4627,13 +4675,13 @@
         <v>118</v>
       </c>
       <c r="C97" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D97" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E97" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F97">
         <v>1841</v>
@@ -4642,7 +4690,7 @@
         <v>1927</v>
       </c>
       <c r="H97" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I97">
         <v>1963</v>
@@ -4651,7 +4699,7 @@
         <v>322</v>
       </c>
       <c r="K97" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="98" spans="2:12">
@@ -4659,13 +4707,13 @@
         <v>119</v>
       </c>
       <c r="C98" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D98" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E98" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F98">
         <v>1835</v>
@@ -4674,7 +4722,7 @@
         <v>1861</v>
       </c>
       <c r="H98" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I98">
         <v>1934</v>
@@ -4683,7 +4731,7 @@
         <v>316</v>
       </c>
       <c r="K98" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="99" spans="2:12">
@@ -4691,13 +4739,13 @@
         <v>120</v>
       </c>
       <c r="C99" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D99" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E99" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F99">
         <v>1747</v>
@@ -4706,7 +4754,7 @@
         <v>1967</v>
       </c>
       <c r="H99" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I99">
         <v>1963</v>
@@ -4715,7 +4763,7 @@
         <v>316</v>
       </c>
       <c r="K99" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="100" spans="2:12">
@@ -4723,10 +4771,10 @@
         <v>121</v>
       </c>
       <c r="C100" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E100" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F100">
         <v>1882</v>
@@ -4735,7 +4783,7 @@
         <v>1882</v>
       </c>
       <c r="H100" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I100">
         <v>1958</v>
@@ -4744,7 +4792,7 @@
         <v>316</v>
       </c>
       <c r="K100" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="101" spans="2:12">
@@ -4752,13 +4800,13 @@
         <v>122</v>
       </c>
       <c r="C101" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D101" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E101" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F101">
         <v>1842</v>
@@ -4767,7 +4815,7 @@
         <v>1943</v>
       </c>
       <c r="H101" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I101">
         <v>1961</v>
@@ -4776,7 +4824,7 @@
         <v>322</v>
       </c>
       <c r="K101" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="102" spans="2:12">
@@ -4784,10 +4832,10 @@
         <v>123</v>
       </c>
       <c r="C102" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E102" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F102">
         <v>1862</v>
@@ -4796,16 +4844,16 @@
         <v>1862</v>
       </c>
       <c r="H102" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I102">
         <v>1962</v>
       </c>
       <c r="J102" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K102" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="103" spans="2:12">
@@ -4813,10 +4861,10 @@
         <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E103" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F103">
         <v>1940</v>
@@ -4825,7 +4873,7 @@
         <v>1945</v>
       </c>
       <c r="H103" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I103">
         <v>1961</v>
@@ -4834,10 +4882,10 @@
         <v>322</v>
       </c>
       <c r="K103" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L103" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="104" spans="2:12">
@@ -4845,13 +4893,13 @@
         <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D104" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E104" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F104">
         <v>1886</v>
@@ -4860,7 +4908,7 @@
         <v>1949</v>
       </c>
       <c r="H104" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I104">
         <v>1948</v>
@@ -4869,7 +4917,7 @@
         <v>322</v>
       </c>
       <c r="K104" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" spans="2:12">
@@ -4877,13 +4925,13 @@
         <v>126</v>
       </c>
       <c r="C105" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D105" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E105" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F105">
         <v>1940</v>
@@ -4892,7 +4940,7 @@
         <v>1957</v>
       </c>
       <c r="H105" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I105">
         <v>1961</v>
@@ -4901,10 +4949,10 @@
         <v>322</v>
       </c>
       <c r="K105" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L105" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="106" spans="2:12">
@@ -4912,13 +4960,13 @@
         <v>127</v>
       </c>
       <c r="C106" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D106" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E106" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F106">
         <v>1910</v>
@@ -4927,13 +4975,13 @@
         <v>1929</v>
       </c>
       <c r="H106" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I106">
         <v>1991</v>
       </c>
       <c r="J106" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" spans="2:12">
@@ -4941,10 +4989,10 @@
         <v>128</v>
       </c>
       <c r="C107" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E107" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F107">
         <v>1908</v>
@@ -4953,7 +5001,7 @@
         <v>1908</v>
       </c>
       <c r="H107" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I107">
         <v>1953</v>
@@ -4962,7 +5010,7 @@
         <v>316</v>
       </c>
       <c r="K107" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="108" spans="2:12">
@@ -4970,13 +5018,13 @@
         <v>129</v>
       </c>
       <c r="C108" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D108" t="s">
         <v>222</v>
       </c>
       <c r="E108" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F108">
         <v>1920</v>
@@ -4985,7 +5033,7 @@
         <v>1954</v>
       </c>
       <c r="H108" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I108">
         <v>1995</v>
@@ -4994,7 +5042,7 @@
         <v>322</v>
       </c>
       <c r="K108" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109" spans="2:12">
@@ -5002,13 +5050,13 @@
         <v>130</v>
       </c>
       <c r="C109" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D109" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E109" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F109">
         <v>1922</v>
@@ -5017,7 +5065,7 @@
         <v>1943</v>
       </c>
       <c r="H109" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I109">
         <v>1962</v>
@@ -5026,7 +5074,7 @@
         <v>322</v>
       </c>
       <c r="K109" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="110" spans="2:12">
@@ -5034,13 +5082,13 @@
         <v>131</v>
       </c>
       <c r="C110" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D110" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E110" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F110">
         <v>1897</v>
@@ -5049,7 +5097,7 @@
         <v>1943</v>
       </c>
       <c r="H110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I110">
         <v>1934</v>
@@ -5058,10 +5106,10 @@
         <v>322</v>
       </c>
       <c r="K110" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L110" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="111" spans="2:12">
@@ -5069,13 +5117,13 @@
         <v>132</v>
       </c>
       <c r="C111" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D111" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E111" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F111">
         <v>1933</v>
@@ -5084,19 +5132,19 @@
         <v>1943</v>
       </c>
       <c r="H111" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I111">
         <v>1961</v>
       </c>
       <c r="J111" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K111" t="s">
+        <v>527</v>
+      </c>
+      <c r="L111" t="s">
         <v>528</v>
-      </c>
-      <c r="L111" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="112" spans="2:12">
@@ -5104,10 +5152,10 @@
         <v>133</v>
       </c>
       <c r="C112" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E112" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F112">
         <v>1845</v>
@@ -5116,16 +5164,16 @@
         <v>1845</v>
       </c>
       <c r="H112" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I112">
         <v>1958</v>
       </c>
       <c r="J112" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K112" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="113" spans="2:12">
@@ -5133,13 +5181,13 @@
         <v>134</v>
       </c>
       <c r="C113" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D113" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E113" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F113">
         <v>1800</v>
@@ -5148,7 +5196,7 @@
         <v>1833</v>
       </c>
       <c r="H113" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I113">
         <v>1890</v>
@@ -5157,7 +5205,7 @@
         <v>322</v>
       </c>
       <c r="K113" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="2:12">
@@ -5165,13 +5213,13 @@
         <v>135</v>
       </c>
       <c r="C114" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E114" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F114">
         <v>1675</v>
@@ -5180,7 +5228,7 @@
         <v>1958</v>
       </c>
       <c r="H114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I114">
         <v>1958</v>
@@ -5189,7 +5237,7 @@
         <v>322</v>
       </c>
       <c r="K114" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="2:12">
@@ -5197,13 +5245,13 @@
         <v>136</v>
       </c>
       <c r="C115" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D115" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E115" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F115">
         <v>1930</v>
@@ -5212,13 +5260,16 @@
         <v>1958</v>
       </c>
       <c r="H115" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I115">
         <v>1962</v>
       </c>
       <c r="J115" t="s">
-        <v>340</v>
+        <v>371</v>
+      </c>
+      <c r="K115" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="116" spans="2:12">
@@ -5226,7 +5277,7 @@
         <v>137</v>
       </c>
       <c r="E116" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F116">
         <v>1860</v>
@@ -5235,7 +5286,7 @@
         <v>1886</v>
       </c>
       <c r="H116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I116">
         <v>1934</v>
@@ -5244,7 +5295,7 @@
         <v>322</v>
       </c>
       <c r="K116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="117" spans="2:12">
@@ -5252,13 +5303,13 @@
         <v>138</v>
       </c>
       <c r="C117" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D117" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E117" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F117">
         <v>1912</v>
@@ -5267,7 +5318,7 @@
         <v>1943</v>
       </c>
       <c r="H117" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I117">
         <v>1995</v>
@@ -5276,7 +5327,7 @@
         <v>322</v>
       </c>
       <c r="K117" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118" spans="2:12">
@@ -5284,13 +5335,13 @@
         <v>139</v>
       </c>
       <c r="C118" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D118" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E118" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F118">
         <v>1915</v>
@@ -5299,7 +5350,7 @@
         <v>1925</v>
       </c>
       <c r="H118" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I118">
         <v>1963</v>
@@ -5308,7 +5359,7 @@
         <v>322</v>
       </c>
       <c r="K118" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="119" spans="2:12">
@@ -5316,13 +5367,13 @@
         <v>140</v>
       </c>
       <c r="C119" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D119" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E119" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F119">
         <v>1928</v>
@@ -5331,7 +5382,7 @@
         <v>1953</v>
       </c>
       <c r="H119" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I119">
         <v>1988</v>
@@ -5340,7 +5391,7 @@
         <v>322</v>
       </c>
       <c r="K119" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="2:12">
@@ -5348,10 +5399,10 @@
         <v>141</v>
       </c>
       <c r="C120" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E120" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F120">
         <v>1950</v>
@@ -5360,7 +5411,7 @@
         <v>1950</v>
       </c>
       <c r="H120" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I120">
         <v>1992</v>
@@ -5369,7 +5420,7 @@
         <v>322</v>
       </c>
       <c r="K120" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="121" spans="2:12">
@@ -5377,13 +5428,13 @@
         <v>142</v>
       </c>
       <c r="C121" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D121" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E121" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F121">
         <v>1928</v>
@@ -5392,7 +5443,7 @@
         <v>1946</v>
       </c>
       <c r="H121" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I121">
         <v>1963</v>
@@ -5401,7 +5452,7 @@
         <v>322</v>
       </c>
       <c r="K121" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="122" spans="2:12">
@@ -5409,13 +5460,13 @@
         <v>143</v>
       </c>
       <c r="C122" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D122" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E122" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F122">
         <v>1947</v>
@@ -5424,7 +5475,7 @@
         <v>1952</v>
       </c>
       <c r="H122" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I122">
         <v>1988</v>
@@ -5433,79 +5484,229 @@
         <v>322</v>
       </c>
       <c r="K122" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="123" spans="2:12">
       <c r="B123" t="s">
         <v>144</v>
       </c>
+      <c r="C123" t="s">
+        <v>541</v>
+      </c>
+      <c r="D123" t="s">
+        <v>542</v>
+      </c>
+      <c r="E123" t="s">
+        <v>385</v>
+      </c>
+      <c r="F123" t="s">
+        <v>540</v>
+      </c>
+      <c r="G123">
+        <v>1919</v>
+      </c>
+      <c r="H123" t="s">
+        <v>447</v>
+      </c>
+      <c r="I123">
+        <v>1963</v>
+      </c>
       <c r="J123" t="s">
         <v>322</v>
       </c>
       <c r="K123" t="s">
+        <v>331</v>
+      </c>
+      <c r="L123" t="s">
         <v>332</v>
-      </c>
-      <c r="L123" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="124" spans="2:12">
       <c r="B124" t="s">
         <v>145</v>
       </c>
+      <c r="C124" t="s">
+        <v>356</v>
+      </c>
+      <c r="D124" t="s">
+        <v>543</v>
+      </c>
+      <c r="E124" t="s">
+        <v>544</v>
+      </c>
+      <c r="F124">
+        <v>1946</v>
+      </c>
+      <c r="G124">
+        <v>1965</v>
+      </c>
+      <c r="H124" t="s">
+        <v>447</v>
+      </c>
+      <c r="I124">
+        <v>1992</v>
+      </c>
       <c r="J124" t="s">
         <v>322</v>
       </c>
       <c r="K124" t="s">
+        <v>329</v>
+      </c>
+      <c r="L124" t="s">
         <v>330</v>
-      </c>
-      <c r="L124" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="125" spans="2:12">
       <c r="B125" t="s">
         <v>146</v>
       </c>
+      <c r="C125" t="s">
+        <v>356</v>
+      </c>
+      <c r="D125" t="s">
+        <v>545</v>
+      </c>
+      <c r="E125" t="s">
+        <v>424</v>
+      </c>
+      <c r="F125">
+        <v>1885</v>
+      </c>
+      <c r="G125">
+        <v>1954</v>
+      </c>
+      <c r="H125" t="s">
+        <v>447</v>
+      </c>
+      <c r="I125">
+        <v>1962</v>
+      </c>
       <c r="J125" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="K125" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="126" spans="2:12">
       <c r="B126" t="s">
         <v>147</v>
       </c>
+      <c r="C126" t="s">
+        <v>357</v>
+      </c>
+      <c r="E126" t="s">
+        <v>385</v>
+      </c>
+      <c r="F126">
+        <v>1919</v>
+      </c>
+      <c r="G126">
+        <v>1919</v>
+      </c>
+      <c r="H126" t="s">
+        <v>385</v>
+      </c>
+      <c r="I126">
+        <v>1956</v>
+      </c>
       <c r="J126" t="s">
         <v>322</v>
       </c>
       <c r="K126" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="127" spans="2:12">
       <c r="B127" t="s">
         <v>148</v>
       </c>
+      <c r="C127" t="s">
+        <v>356</v>
+      </c>
+      <c r="D127" t="s">
+        <v>547</v>
+      </c>
+      <c r="E127" t="s">
+        <v>385</v>
+      </c>
+      <c r="F127">
+        <v>1890</v>
+      </c>
+      <c r="G127">
+        <v>1917</v>
+      </c>
+      <c r="H127" t="s">
+        <v>447</v>
+      </c>
+      <c r="I127">
+        <v>1918</v>
+      </c>
       <c r="J127" t="s">
-        <v>319</v>
+        <v>365</v>
+      </c>
+      <c r="K127" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="128" spans="2:12">
       <c r="B128" t="s">
         <v>149</v>
       </c>
+      <c r="C128" t="s">
+        <v>356</v>
+      </c>
+      <c r="D128" t="s">
+        <v>549</v>
+      </c>
+      <c r="E128" t="s">
+        <v>385</v>
+      </c>
+      <c r="F128">
+        <v>1820</v>
+      </c>
+      <c r="G128">
+        <v>1833</v>
+      </c>
+      <c r="H128" t="s">
+        <v>389</v>
+      </c>
+      <c r="I128">
+        <v>1859</v>
+      </c>
       <c r="J128" t="s">
         <v>322</v>
       </c>
       <c r="K128" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="2:12">
       <c r="B129" t="s">
         <v>150</v>
       </c>
+      <c r="C129" t="s">
+        <v>356</v>
+      </c>
+      <c r="D129" t="s">
+        <v>550</v>
+      </c>
+      <c r="E129" t="s">
+        <v>385</v>
+      </c>
+      <c r="F129">
+        <v>1748</v>
+      </c>
+      <c r="G129">
+        <v>1912</v>
+      </c>
+      <c r="H129" t="s">
+        <v>551</v>
+      </c>
+      <c r="I129">
+        <v>1962</v>
+      </c>
       <c r="J129" t="s">
         <v>322</v>
       </c>
@@ -5517,6 +5718,27 @@
       <c r="B130" t="s">
         <v>151</v>
       </c>
+      <c r="C130" t="s">
+        <v>356</v>
+      </c>
+      <c r="D130" t="s">
+        <v>552</v>
+      </c>
+      <c r="E130" t="s">
+        <v>385</v>
+      </c>
+      <c r="F130">
+        <v>1926</v>
+      </c>
+      <c r="G130">
+        <v>1926</v>
+      </c>
+      <c r="H130" t="s">
+        <v>385</v>
+      </c>
+      <c r="I130">
+        <v>1953</v>
+      </c>
       <c r="J130" t="s">
         <v>322</v>
       </c>
@@ -5528,25 +5750,67 @@
       <c r="B131" t="s">
         <v>152</v>
       </c>
+      <c r="C131" t="s">
+        <v>356</v>
+      </c>
+      <c r="D131" t="s">
+        <v>554</v>
+      </c>
+      <c r="E131" t="s">
+        <v>385</v>
+      </c>
+      <c r="F131">
+        <v>1842</v>
+      </c>
+      <c r="G131">
+        <v>1966</v>
+      </c>
+      <c r="H131" t="s">
+        <v>447</v>
+      </c>
+      <c r="I131">
+        <v>1989</v>
+      </c>
       <c r="J131" t="s">
         <v>322</v>
       </c>
       <c r="K131" t="s">
-        <v>325</v>
+        <v>553</v>
       </c>
     </row>
     <row r="132" spans="2:12">
       <c r="B132" t="s">
         <v>153</v>
       </c>
+      <c r="C132" t="s">
+        <v>356</v>
+      </c>
+      <c r="D132" t="s">
+        <v>555</v>
+      </c>
+      <c r="E132" t="s">
+        <v>385</v>
+      </c>
+      <c r="F132">
+        <v>1912</v>
+      </c>
+      <c r="G132">
+        <v>1943</v>
+      </c>
+      <c r="H132" t="s">
+        <v>447</v>
+      </c>
+      <c r="I132">
+        <v>1948</v>
+      </c>
       <c r="J132" t="s">
         <v>322</v>
       </c>
       <c r="K132" t="s">
+        <v>325</v>
+      </c>
+      <c r="L132" t="s">
         <v>326</v>
-      </c>
-      <c r="L132" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="133" spans="2:12">
@@ -5950,25 +6214,25 @@
     </row>
     <row r="196" spans="2:10">
       <c r="B196" t="s">
+        <v>379</v>
+      </c>
+      <c r="C196" t="s">
+        <v>356</v>
+      </c>
+      <c r="D196" t="s">
         <v>380</v>
-      </c>
-      <c r="C196" t="s">
-        <v>357</v>
-      </c>
-      <c r="D196" t="s">
-        <v>381</v>
       </c>
       <c r="G196">
         <v>1839</v>
       </c>
       <c r="H196" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I196">
         <v>1963</v>
       </c>
       <c r="J196" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="197" spans="2:10">
@@ -6723,7 +6987,7 @@
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -6731,7 +6995,7 @@
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J20">
         <v>38.299999999999997</v>
@@ -6739,7 +7003,7 @@
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -6747,12 +7011,12 @@
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -6763,12 +7027,12 @@
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H25">
         <v>0.2</v>
@@ -6776,7 +7040,7 @@
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J26">
         <v>29.7</v>
@@ -6784,7 +7048,7 @@
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -6792,12 +7056,12 @@
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -6808,12 +7072,12 @@
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H31">
         <v>5.0999999999999996</v>
@@ -6821,7 +7085,7 @@
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H32">
         <f>SUM(H4:H31)</f>

--- a/municipios .xlsx
+++ b/municipios .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="614">
   <si>
     <t>Acre</t>
   </si>
@@ -1783,6 +1783,84 @@
   </si>
   <si>
     <t>Bom Retiro, Arraial da Mina e Mina dos Ingleses</t>
+  </si>
+  <si>
+    <t>ao catarinense General Gustavo Lebon Régis que na Guerra do Contestado </t>
+  </si>
+  <si>
+    <t>Trombudo</t>
+  </si>
+  <si>
+    <t>Vargedo</t>
+  </si>
+  <si>
+    <t>ao ex-deputado catarinense Leoberto Leal</t>
+  </si>
+  <si>
+    <t>Ao avistarem o Rio Engano, em forma de serpente, entre as matas verdejantes do vale, os desbravadores teriam exclamado: ″Lindo! Olha!″ — daí o nome da cidade. </t>
+  </si>
+  <si>
+    <t> do mamífero lontra que vivia na região</t>
+  </si>
+  <si>
+    <t>Todos o chamavam de “Negrinho Maluco”, mas ele tinha orgulho em dizer que se chamava Luiz Alves, o nome do patrão que originou o nome do rio, que ele seguia. </t>
+  </si>
+  <si>
+    <t>Paiol da Macieira</t>
+  </si>
+  <si>
+    <t>os colonizadores construírem suas casas perto de três enormes e vistosos pés de maçã. Casas de estilo exótico parecidas com paióis, por esse fato o povoado era conhecido por PAIOL DE MACIEIRA</t>
+  </si>
+  <si>
+    <t>em honra e memória do Dr. Manoel da Silva Mafra, defensor de Santa Catarina na pendência do Contestado</t>
+  </si>
+  <si>
+    <t>uma homenagem a Gercino Gerson Gomes, filho de Manoel Vicente Gomes, que também se empenhou pelo desenvolvimento desta comunidade</t>
+  </si>
+  <si>
+    <t>foi o primeiro superintendente de Canoinhas - SC</t>
+  </si>
+  <si>
+    <t>Colônia Vieira</t>
+  </si>
+  <si>
+    <t> Campinas do Sul</t>
+  </si>
+  <si>
+    <t>Moretes</t>
+  </si>
+  <si>
+    <t>Gato do Mato</t>
+  </si>
+  <si>
+    <t>alguns caçadores ao verem, do alto do morro, a beleza da copa dos pinheirais, teriam exclamado: ?que maravilha?, dando origem ao nome do município</t>
+  </si>
+  <si>
+    <t>Marrecas</t>
+  </si>
+  <si>
+    <t>otro idioma</t>
+  </si>
+  <si>
+    <t>O local lembrava os pântanos da Itália, chamados de maremma, e vem daí o nome do município</t>
+  </si>
+  <si>
+    <t>Campinha e Patrimônio</t>
+  </si>
+  <si>
+    <t>Arvore</t>
+  </si>
+  <si>
+    <t>presença abundante da árvore Maçaranduba que se deu a denominação a este município</t>
+  </si>
+  <si>
+    <t>uma referência ao capitão João Teixeira de Matos Costa, trucidado na repressão aos rebeldes que abraçaram a causa do Contestado</t>
+  </si>
+  <si>
+    <t>São João dos Pobres</t>
+  </si>
+  <si>
+    <t>designa muitas colmeias encontradas pelos primeiros exploradores,</t>
   </si>
 </sst>
 </file>
@@ -2285,8 +2363,8 @@
   <dimension ref="A1:P295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H148" sqref="H148"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I165" sqref="I165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2709,13 +2787,19 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>356</v>
+        <v>357</v>
+      </c>
+      <c r="D20" t="s">
+        <v>601</v>
       </c>
       <c r="G20">
         <v>1880</v>
       </c>
       <c r="H20" t="s">
         <v>367</v>
+      </c>
+      <c r="I20">
+        <v>1880</v>
       </c>
       <c r="J20" t="s">
         <v>322</v>
@@ -6366,104 +6450,476 @@
       <c r="B148" t="s">
         <v>169</v>
       </c>
+      <c r="C148" t="s">
+        <v>356</v>
+      </c>
+      <c r="D148" t="s">
+        <v>589</v>
+      </c>
+      <c r="E148" t="s">
+        <v>418</v>
+      </c>
+      <c r="F148">
+        <v>1895</v>
+      </c>
+      <c r="G148">
+        <v>1934</v>
+      </c>
+      <c r="H148" t="s">
+        <v>447</v>
+      </c>
+      <c r="I148">
+        <v>1958</v>
+      </c>
       <c r="J148" t="s">
         <v>316</v>
+      </c>
+      <c r="K148" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="149" spans="2:11">
       <c r="B149" t="s">
         <v>170</v>
       </c>
+      <c r="C149" t="s">
+        <v>356</v>
+      </c>
+      <c r="D149" t="s">
+        <v>590</v>
+      </c>
+      <c r="E149" t="s">
+        <v>418</v>
+      </c>
+      <c r="F149">
+        <v>1917</v>
+      </c>
+      <c r="G149">
+        <v>1962</v>
+      </c>
+      <c r="H149" t="s">
+        <v>354</v>
+      </c>
+      <c r="I149">
+        <v>1962</v>
+      </c>
       <c r="J149" t="s">
         <v>316</v>
+      </c>
+      <c r="K149" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="150" spans="2:11">
       <c r="B150" t="s">
         <v>171</v>
       </c>
+      <c r="C150" t="s">
+        <v>357</v>
+      </c>
+      <c r="E150" t="s">
+        <v>424</v>
+      </c>
+      <c r="F150">
+        <v>1940</v>
+      </c>
+      <c r="G150">
+        <v>1940</v>
+      </c>
+      <c r="H150" t="s">
+        <v>374</v>
+      </c>
+      <c r="I150">
+        <v>1990</v>
+      </c>
+      <c r="J150" t="s">
+        <v>359</v>
+      </c>
+      <c r="K150" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="151" spans="2:11">
       <c r="B151" t="s">
         <v>172</v>
       </c>
+      <c r="C151" t="s">
+        <v>357</v>
+      </c>
+      <c r="E151" t="s">
+        <v>385</v>
+      </c>
+      <c r="F151">
+        <v>1898</v>
+      </c>
+      <c r="G151">
+        <v>1898</v>
+      </c>
+      <c r="H151" t="s">
+        <v>385</v>
+      </c>
+      <c r="I151">
+        <v>1961</v>
+      </c>
+      <c r="J151" t="s">
+        <v>371</v>
+      </c>
+      <c r="K151" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="152" spans="2:11">
       <c r="B152" t="s">
         <v>173</v>
       </c>
+      <c r="C152" t="s">
+        <v>357</v>
+      </c>
+      <c r="E152" t="s">
+        <v>385</v>
+      </c>
+      <c r="F152">
+        <v>1877</v>
+      </c>
+      <c r="G152">
+        <v>1877</v>
+      </c>
+      <c r="H152" t="s">
+        <v>385</v>
+      </c>
+      <c r="I152">
+        <v>1958</v>
+      </c>
       <c r="J152" t="s">
-        <v>316</v>
+        <v>359</v>
+      </c>
+      <c r="K152" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="153" spans="2:11">
       <c r="B153" t="s">
         <v>174</v>
       </c>
+      <c r="C153" t="s">
+        <v>357</v>
+      </c>
+      <c r="E153" t="s">
+        <v>424</v>
+      </c>
+      <c r="F153">
+        <v>1917</v>
+      </c>
+      <c r="G153">
+        <v>1917</v>
+      </c>
+      <c r="H153" t="s">
+        <v>374</v>
+      </c>
+      <c r="I153">
+        <v>1995</v>
+      </c>
     </row>
     <row r="154" spans="2:11">
       <c r="B154" t="s">
         <v>175</v>
       </c>
+      <c r="C154" t="s">
+        <v>356</v>
+      </c>
+      <c r="D154" t="s">
+        <v>595</v>
+      </c>
+      <c r="E154" t="s">
+        <v>478</v>
+      </c>
+      <c r="F154">
+        <v>1935</v>
+      </c>
+      <c r="G154">
+        <v>1953</v>
+      </c>
+      <c r="H154" t="s">
+        <v>447</v>
+      </c>
+      <c r="I154">
+        <v>1992</v>
+      </c>
+      <c r="J154" t="s">
+        <v>567</v>
+      </c>
+      <c r="K154" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="155" spans="2:11">
       <c r="B155" t="s">
         <v>176</v>
       </c>
+      <c r="E155" t="s">
+        <v>385</v>
+      </c>
+      <c r="F155">
+        <v>1829</v>
+      </c>
+      <c r="G155">
+        <v>1917</v>
+      </c>
+      <c r="H155" t="s">
+        <v>354</v>
+      </c>
+      <c r="I155">
+        <v>1917</v>
+      </c>
+      <c r="J155" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="156" spans="2:11">
       <c r="B156" t="s">
         <v>177</v>
       </c>
+      <c r="E156" t="s">
+        <v>385</v>
+      </c>
+      <c r="F156">
+        <v>1884</v>
+      </c>
+      <c r="G156">
+        <v>1961</v>
+      </c>
+      <c r="H156" t="s">
+        <v>354</v>
+      </c>
+      <c r="I156">
+        <v>1961</v>
+      </c>
       <c r="J156" t="s">
         <v>316</v>
+      </c>
+      <c r="K156" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="157" spans="2:11">
       <c r="B157" t="s">
         <v>178</v>
       </c>
+      <c r="C157" t="s">
+        <v>356</v>
+      </c>
+      <c r="D157" t="s">
+        <v>600</v>
+      </c>
+      <c r="E157" t="s">
+        <v>385</v>
+      </c>
+      <c r="F157">
+        <v>1961</v>
+      </c>
+      <c r="G157">
+        <v>1961</v>
+      </c>
+      <c r="H157" t="s">
+        <v>354</v>
+      </c>
+      <c r="I157">
+        <v>1961</v>
+      </c>
       <c r="J157" t="s">
         <v>316</v>
+      </c>
+      <c r="K157" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="158" spans="2:11">
       <c r="B158" t="s">
         <v>179</v>
       </c>
+      <c r="C158" t="s">
+        <v>356</v>
+      </c>
+      <c r="D158" t="s">
+        <v>602</v>
+      </c>
+      <c r="E158" t="s">
+        <v>544</v>
+      </c>
+      <c r="F158">
+        <v>1920</v>
+      </c>
+      <c r="G158">
+        <v>1940</v>
+      </c>
+      <c r="H158" t="s">
+        <v>447</v>
+      </c>
+      <c r="I158">
+        <v>1967</v>
+      </c>
+      <c r="J158" t="s">
+        <v>322</v>
+      </c>
+      <c r="K158" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="159" spans="2:11">
       <c r="B159" t="s">
         <v>180</v>
       </c>
+      <c r="C159" t="s">
+        <v>357</v>
+      </c>
+      <c r="E159" t="s">
+        <v>385</v>
+      </c>
+      <c r="F159">
+        <v>1951</v>
+      </c>
+      <c r="G159">
+        <v>1951</v>
+      </c>
+      <c r="H159" t="s">
+        <v>385</v>
+      </c>
+      <c r="I159">
+        <v>1958</v>
+      </c>
+      <c r="J159" t="s">
+        <v>359</v>
+      </c>
+      <c r="K159" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="160" spans="2:11">
       <c r="B160" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="161" spans="2:10">
+      <c r="C160" t="s">
+        <v>356</v>
+      </c>
+      <c r="D160" t="s">
+        <v>605</v>
+      </c>
+      <c r="E160" t="s">
+        <v>424</v>
+      </c>
+      <c r="F160">
+        <v>1940</v>
+      </c>
+      <c r="G160">
+        <v>1988</v>
+      </c>
+      <c r="H160" t="s">
+        <v>354</v>
+      </c>
+      <c r="I160">
+        <v>1988</v>
+      </c>
+      <c r="J160" t="s">
+        <v>606</v>
+      </c>
+      <c r="K160" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11">
       <c r="B161" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="162" spans="2:10">
+      <c r="C161" t="s">
+        <v>356</v>
+      </c>
+      <c r="D161" t="s">
+        <v>608</v>
+      </c>
+      <c r="E161" t="s">
+        <v>385</v>
+      </c>
+      <c r="F161">
+        <v>1870</v>
+      </c>
+      <c r="G161">
+        <v>1961</v>
+      </c>
+      <c r="H161" t="s">
+        <v>354</v>
+      </c>
+      <c r="I161">
+        <v>1961</v>
+      </c>
+      <c r="J161" t="s">
+        <v>609</v>
+      </c>
+      <c r="K161" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" ht="12.75" customHeight="1">
       <c r="B162" t="s">
         <v>183</v>
       </c>
+      <c r="C162" t="s">
+        <v>356</v>
+      </c>
+      <c r="D162" t="s">
+        <v>612</v>
+      </c>
+      <c r="E162" t="s">
+        <v>424</v>
+      </c>
+      <c r="F162">
+        <v>1875</v>
+      </c>
+      <c r="G162">
+        <v>1938</v>
+      </c>
+      <c r="H162" t="s">
+        <v>447</v>
+      </c>
+      <c r="I162">
+        <v>1962</v>
+      </c>
       <c r="J162" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="163" spans="2:10">
+      <c r="K162" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11">
       <c r="B163" t="s">
         <v>184</v>
       </c>
+      <c r="C163" t="s">
+        <v>357</v>
+      </c>
+      <c r="E163" t="s">
+        <v>424</v>
+      </c>
+      <c r="F163">
+        <v>1892</v>
+      </c>
+      <c r="G163">
+        <v>1892</v>
+      </c>
+      <c r="H163" t="s">
+        <v>374</v>
+      </c>
+      <c r="I163">
+        <v>1961</v>
+      </c>
       <c r="J163" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="164" spans="2:10">
+        <v>371</v>
+      </c>
+      <c r="K163" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11">
       <c r="B164" t="s">
         <v>185</v>
       </c>
@@ -6471,7 +6927,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="165" spans="2:10">
+    <row r="165" spans="2:11">
       <c r="B165" t="s">
         <v>186</v>
       </c>
@@ -6479,27 +6935,27 @@
         <v>321</v>
       </c>
     </row>
-    <row r="166" spans="2:10">
+    <row r="166" spans="2:11">
       <c r="B166" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="167" spans="2:10">
+    <row r="167" spans="2:11">
       <c r="B167" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="168" spans="2:10">
+    <row r="168" spans="2:11">
       <c r="B168" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="169" spans="2:10">
+    <row r="169" spans="2:11">
       <c r="B169" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="170" spans="2:10">
+    <row r="170" spans="2:11">
       <c r="B170" t="s">
         <v>191</v>
       </c>
@@ -6507,7 +6963,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="171" spans="2:10">
+    <row r="171" spans="2:11">
       <c r="B171" t="s">
         <v>192</v>
       </c>
@@ -6515,27 +6971,27 @@
         <v>321</v>
       </c>
     </row>
-    <row r="172" spans="2:10">
+    <row r="172" spans="2:11">
       <c r="B172" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="173" spans="2:10">
+    <row r="173" spans="2:11">
       <c r="B173" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="174" spans="2:10">
+    <row r="174" spans="2:11">
       <c r="B174" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="175" spans="2:10">
+    <row r="175" spans="2:11">
       <c r="B175" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="176" spans="2:10">
+    <row r="176" spans="2:11">
       <c r="B176" t="s">
         <v>197</v>
       </c>
